--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="10584"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$B$4:$V$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Time Sheet'!$A$1:$T$447</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -632,15 +632,24 @@
   <si>
     <t>Not Billing LAS Hours because of last month.</t>
   </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Billed for this day by mistake</t>
+  </si>
+  <si>
+    <t>Billed for this day even though I took a leave.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,25 +1141,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,6 +1165,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1177,10 +1177,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,7 +1197,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -1675,6 +1706,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1709,6 +1741,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1884,20 +1917,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J377" sqref="J377"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="R384" sqref="R384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.21875" style="10" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" style="10" bestFit="1" customWidth="1"/>
@@ -1912,7 +1945,7 @@
     <col min="20" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="41" customFormat="1" ht="39.6">
+    <row r="1" spans="1:20" s="41" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>42565</v>
       </c>
@@ -2001,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>42566</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>42567</v>
       </c>
@@ -2066,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>42568</v>
       </c>
@@ -2096,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>42569</v>
       </c>
@@ -2131,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>42570</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>42571</v>
       </c>
@@ -2207,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>42572</v>
       </c>
@@ -2259,7 +2292,7 @@
       </c>
       <c r="T9" s="55"/>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>42573</v>
       </c>
@@ -2301,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>42574</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>42575</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>42576</v>
       </c>
@@ -2397,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>42577</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>42578</v>
       </c>
@@ -2466,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>42579</v>
       </c>
@@ -2496,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>42580</v>
       </c>
@@ -2526,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>42581</v>
       </c>
@@ -2556,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>42582</v>
       </c>
@@ -2586,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="41.4" hidden="1">
+    <row r="20" spans="1:19" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>42583</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>42584</v>
       </c>
@@ -2688,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>42585</v>
       </c>
@@ -2729,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>42586</v>
       </c>
@@ -2770,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.6" hidden="1">
+    <row r="24" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>42587</v>
       </c>
@@ -2802,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27.6" hidden="1">
+    <row r="25" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>42588</v>
       </c>
@@ -2834,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.6" hidden="1">
+    <row r="26" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>42589</v>
       </c>
@@ -2866,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>42590</v>
       </c>
@@ -2907,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>42591</v>
       </c>
@@ -2936,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>42592</v>
       </c>
@@ -2965,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>42593</v>
       </c>
@@ -2994,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>42594</v>
       </c>
@@ -3023,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27.6" hidden="1">
+    <row r="32" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>42595</v>
       </c>
@@ -3055,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27.6" hidden="1">
+    <row r="33" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>42596</v>
       </c>
@@ -3087,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="69" hidden="1">
+    <row r="34" spans="1:19" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>42597</v>
       </c>
@@ -3123,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>42598</v>
       </c>
@@ -3182,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>42599</v>
       </c>
@@ -3223,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27.6" hidden="1">
+    <row r="37" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>42600</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>42601</v>
       </c>
@@ -3302,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27.6" hidden="1">
+    <row r="39" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>42602</v>
       </c>
@@ -3334,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="27.6" hidden="1">
+    <row r="40" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>42603</v>
       </c>
@@ -3366,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>42604</v>
       </c>
@@ -3408,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>42605</v>
       </c>
@@ -3455,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42606</v>
       </c>
@@ -3497,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>42607</v>
       </c>
@@ -3539,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>42608</v>
       </c>
@@ -3592,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27.6" hidden="1">
+    <row r="46" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>42609</v>
       </c>
@@ -3624,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27.6" hidden="1">
+    <row r="47" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>42610</v>
       </c>
@@ -3656,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>42611</v>
       </c>
@@ -3698,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>42612</v>
       </c>
@@ -3745,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>42613</v>
       </c>
@@ -3787,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>42614</v>
       </c>
@@ -3834,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="55.2" hidden="1">
+    <row r="52" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>42615</v>
       </c>
@@ -3866,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27.6" hidden="1">
+    <row r="53" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>42616</v>
       </c>
@@ -3898,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27.6" hidden="1">
+    <row r="54" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>42617</v>
       </c>
@@ -3930,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27.6" hidden="1">
+    <row r="55" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>42618</v>
       </c>
@@ -3963,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>42619</v>
       </c>
@@ -4010,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>42620</v>
       </c>
@@ -4051,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>42621</v>
       </c>
@@ -4092,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="55.2" hidden="1">
+    <row r="59" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>42622</v>
       </c>
@@ -4145,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="55.2" hidden="1">
+    <row r="60" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>42623</v>
       </c>
@@ -4177,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27.6" hidden="1">
+    <row r="61" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>42624</v>
       </c>
@@ -4209,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>42625</v>
       </c>
@@ -4250,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="55.2" hidden="1">
+    <row r="63" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>42626</v>
       </c>
@@ -4285,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>42627</v>
       </c>
@@ -4332,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>42628</v>
       </c>
@@ -4373,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>42629</v>
       </c>
@@ -4414,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>42630</v>
       </c>
@@ -4443,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>42631</v>
       </c>
@@ -4472,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>42632</v>
       </c>
@@ -4513,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>42633</v>
       </c>
@@ -4560,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>42634</v>
       </c>
@@ -4601,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>42635</v>
       </c>
@@ -4642,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>42636</v>
       </c>
@@ -4683,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="41.4" hidden="1">
+    <row r="74" spans="1:19" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>42637</v>
       </c>
@@ -4727,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>42638</v>
       </c>
@@ -4756,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>42639</v>
       </c>
@@ -4797,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>42640</v>
       </c>
@@ -4844,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>42641</v>
       </c>
@@ -4885,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>42642</v>
       </c>
@@ -4926,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>42643</v>
       </c>
@@ -4967,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>42644</v>
       </c>
@@ -4997,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>42645</v>
       </c>
@@ -5027,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>42646</v>
       </c>
@@ -5069,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>42647</v>
       </c>
@@ -5117,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>42648</v>
       </c>
@@ -5165,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>42649</v>
       </c>
@@ -5213,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>42650</v>
       </c>
@@ -5262,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>42651</v>
       </c>
@@ -5292,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>42652</v>
       </c>
@@ -5322,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>42653</v>
       </c>
@@ -5364,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>42654</v>
       </c>
@@ -5412,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>42655</v>
       </c>
@@ -5444,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>42656</v>
       </c>
@@ -5486,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>42657</v>
       </c>
@@ -5534,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>42658</v>
       </c>
@@ -5564,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>42659</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>42660</v>
       </c>
@@ -5636,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>42661</v>
       </c>
@@ -5690,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>42662</v>
       </c>
@@ -5732,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>42663</v>
       </c>
@@ -5774,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>42664</v>
       </c>
@@ -5816,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>42665</v>
       </c>
@@ -5846,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>42666</v>
       </c>
@@ -5876,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>42667</v>
       </c>
@@ -5918,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>42668</v>
       </c>
@@ -5966,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>42669</v>
       </c>
@@ -6008,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>42670</v>
       </c>
@@ -6050,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>42671</v>
       </c>
@@ -6092,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="82.8" hidden="1">
+    <row r="109" spans="1:19" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>42672</v>
       </c>
@@ -6136,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>42673</v>
       </c>
@@ -6166,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>42674</v>
       </c>
@@ -6198,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>42675</v>
       </c>
@@ -6230,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>42676</v>
       </c>
@@ -6272,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>42677</v>
       </c>
@@ -6314,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>42678</v>
       </c>
@@ -6356,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>42679</v>
       </c>
@@ -6386,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>42680</v>
       </c>
@@ -6416,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>42681</v>
       </c>
@@ -6458,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>42682</v>
       </c>
@@ -6506,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>42683</v>
       </c>
@@ -6548,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>42684</v>
       </c>
@@ -6590,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>42685</v>
       </c>
@@ -6638,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>42686</v>
       </c>
@@ -6668,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>42687</v>
       </c>
@@ -6698,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>42688</v>
       </c>
@@ -6740,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>42689</v>
       </c>
@@ -6782,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>42690</v>
       </c>
@@ -6824,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>42691</v>
       </c>
@@ -6866,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>42692</v>
       </c>
@@ -6908,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>42693</v>
       </c>
@@ -6938,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>42694</v>
       </c>
@@ -6968,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>42695</v>
       </c>
@@ -7010,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>42696</v>
       </c>
@@ -7052,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>42697</v>
       </c>
@@ -7094,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>42698</v>
       </c>
@@ -7136,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>42699</v>
       </c>
@@ -7178,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>42700</v>
       </c>
@@ -7208,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>42701</v>
       </c>
@@ -7238,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>42702</v>
       </c>
@@ -7280,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>42703</v>
       </c>
@@ -7322,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>42704</v>
       </c>
@@ -7364,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>42705</v>
       </c>
@@ -7396,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>42706</v>
       </c>
@@ -7428,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>42707</v>
       </c>
@@ -7458,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>42708</v>
       </c>
@@ -7488,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>42709</v>
       </c>
@@ -7520,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>42710</v>
       </c>
@@ -7552,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>42711</v>
       </c>
@@ -7584,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>42712</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>42713</v>
       </c>
@@ -7648,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>42714</v>
       </c>
@@ -7678,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>42715</v>
       </c>
@@ -7708,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>42716</v>
       </c>
@@ -7740,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>42717</v>
       </c>
@@ -7772,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>42718</v>
       </c>
@@ -7804,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>42719</v>
       </c>
@@ -7836,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>42720</v>
       </c>
@@ -7868,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>42721</v>
       </c>
@@ -7898,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>42722</v>
       </c>
@@ -7928,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>42723</v>
       </c>
@@ -7960,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>42724</v>
       </c>
@@ -7992,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>42725</v>
       </c>
@@ -8024,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>42726</v>
       </c>
@@ -8056,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>42727</v>
       </c>
@@ -8088,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>42728</v>
       </c>
@@ -8118,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>42729</v>
       </c>
@@ -8148,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>42730</v>
       </c>
@@ -8180,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>42731</v>
       </c>
@@ -8212,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>42732</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>42733</v>
       </c>
@@ -8276,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>42734</v>
       </c>
@@ -8308,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>42735</v>
       </c>
@@ -8338,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>42736</v>
       </c>
@@ -8368,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>42737</v>
       </c>
@@ -8410,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>42738</v>
       </c>
@@ -8458,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>42739</v>
       </c>
@@ -8500,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>42740</v>
       </c>
@@ -8542,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>42741</v>
       </c>
@@ -8585,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>42742</v>
       </c>
@@ -8615,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>42743</v>
       </c>
@@ -8645,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>42744</v>
       </c>
@@ -8690,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>42745</v>
       </c>
@@ -8738,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>42746</v>
       </c>
@@ -8780,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>42747</v>
       </c>
@@ -8822,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>42748</v>
       </c>
@@ -8864,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>42749</v>
       </c>
@@ -8894,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>42750</v>
       </c>
@@ -8924,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>42751</v>
       </c>
@@ -8966,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>42752</v>
       </c>
@@ -9014,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
         <v>42753</v>
       </c>
@@ -9056,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>42754</v>
       </c>
@@ -9094,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
         <v>42755</v>
       </c>
@@ -9137,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>42756</v>
       </c>
@@ -9167,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
         <v>42757</v>
       </c>
@@ -9197,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>42758</v>
       </c>
@@ -9245,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>42759</v>
       </c>
@@ -9293,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
         <v>42760</v>
       </c>
@@ -9327,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
         <v>42761</v>
       </c>
@@ -9361,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
         <v>42762</v>
       </c>
@@ -9403,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9">
         <v>42763</v>
       </c>
@@ -9433,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9">
         <v>42764</v>
       </c>
@@ -9463,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9">
         <v>42765</v>
       </c>
@@ -9505,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
         <v>42766</v>
       </c>
@@ -9553,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9">
         <v>42767</v>
       </c>
@@ -9598,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9">
         <v>42768</v>
       </c>
@@ -9643,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9">
         <v>42769</v>
       </c>
@@ -9688,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9">
         <v>42770</v>
       </c>
@@ -9718,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9">
         <v>42771</v>
       </c>
@@ -9748,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9">
         <v>42772</v>
       </c>
@@ -9793,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9">
         <v>42773</v>
       </c>
@@ -9844,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9">
         <v>42774</v>
       </c>
@@ -9889,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9">
         <v>42775</v>
       </c>
@@ -9934,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9">
         <v>42776</v>
       </c>
@@ -9979,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9">
         <v>42777</v>
       </c>
@@ -10009,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9">
         <v>42778</v>
       </c>
@@ -10039,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9">
         <v>42779</v>
       </c>
@@ -10084,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9">
         <v>42780</v>
       </c>
@@ -10135,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9">
         <v>42781</v>
       </c>
@@ -10167,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9">
         <v>42782</v>
       </c>
@@ -10199,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9">
         <v>42783</v>
       </c>
@@ -10231,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9">
         <v>42784</v>
       </c>
@@ -10261,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9">
         <v>42785</v>
       </c>
@@ -10291,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9">
         <v>42786</v>
       </c>
@@ -10336,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9">
         <v>42787</v>
       </c>
@@ -10387,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9">
         <v>42788</v>
       </c>
@@ -10438,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9">
         <v>42789</v>
       </c>
@@ -10483,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9">
         <v>42790</v>
       </c>
@@ -10528,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9">
         <v>42791</v>
       </c>
@@ -10558,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9">
         <v>42792</v>
       </c>
@@ -10588,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9">
         <v>42793</v>
       </c>
@@ -10635,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9">
         <v>42794</v>
       </c>
@@ -10664,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9">
         <v>42795</v>
       </c>
@@ -10696,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9">
         <v>42796</v>
       </c>
@@ -10741,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9">
         <v>42797</v>
       </c>
@@ -10773,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9">
         <v>42798</v>
       </c>
@@ -10807,7 +10840,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9">
         <v>42799</v>
       </c>
@@ -10841,7 +10874,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9">
         <v>42800</v>
       </c>
@@ -10890,7 +10923,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9">
         <v>42801</v>
       </c>
@@ -10936,7 +10969,7 @@
       </c>
       <c r="T238" s="55"/>
     </row>
-    <row r="239" spans="1:20" hidden="1">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9">
         <v>42802</v>
       </c>
@@ -10982,7 +11015,7 @@
       </c>
       <c r="T239" s="55"/>
     </row>
-    <row r="240" spans="1:20" hidden="1">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9">
         <v>42803</v>
       </c>
@@ -11025,7 +11058,7 @@
       </c>
       <c r="T240" s="55"/>
     </row>
-    <row r="241" spans="1:20" hidden="1">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9">
         <v>42804</v>
       </c>
@@ -11068,7 +11101,7 @@
       </c>
       <c r="T241" s="55"/>
     </row>
-    <row r="242" spans="1:20" hidden="1">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9">
         <v>42805</v>
       </c>
@@ -11099,7 +11132,7 @@
       </c>
       <c r="T242" s="55"/>
     </row>
-    <row r="243" spans="1:20" hidden="1">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9">
         <v>42806</v>
       </c>
@@ -11130,7 +11163,7 @@
       </c>
       <c r="T243" s="55"/>
     </row>
-    <row r="244" spans="1:20" hidden="1">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9">
         <v>42807</v>
       </c>
@@ -11176,7 +11209,7 @@
       </c>
       <c r="T244" s="55"/>
     </row>
-    <row r="245" spans="1:20" hidden="1">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9">
         <v>42808</v>
       </c>
@@ -11222,7 +11255,7 @@
       </c>
       <c r="T245" s="55"/>
     </row>
-    <row r="246" spans="1:20" hidden="1">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9">
         <v>42809</v>
       </c>
@@ -11275,7 +11308,7 @@
       </c>
       <c r="T246" s="55"/>
     </row>
-    <row r="247" spans="1:20" hidden="1">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9">
         <v>42810</v>
       </c>
@@ -11319,7 +11352,7 @@
       </c>
       <c r="T247" s="55"/>
     </row>
-    <row r="248" spans="1:20" hidden="1">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9">
         <v>42811</v>
       </c>
@@ -11362,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9">
         <v>42812</v>
       </c>
@@ -11393,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9">
         <v>42813</v>
       </c>
@@ -11424,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9">
         <v>42814</v>
       </c>
@@ -11469,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9">
         <v>42815</v>
       </c>
@@ -11520,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9">
         <v>42816</v>
       </c>
@@ -11572,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9">
         <v>42817</v>
       </c>
@@ -11615,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9">
         <v>42818</v>
       </c>
@@ -11658,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9">
         <v>42819</v>
       </c>
@@ -11689,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9">
         <v>42820</v>
       </c>
@@ -11720,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9">
         <v>42821</v>
       </c>
@@ -11765,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9">
         <v>42822</v>
       </c>
@@ -11816,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9">
         <v>42823</v>
       </c>
@@ -11868,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9">
         <v>42824</v>
       </c>
@@ -11911,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9">
         <v>42825</v>
       </c>
@@ -11954,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9">
         <v>42826</v>
       </c>
@@ -11984,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9">
         <v>42827</v>
       </c>
@@ -12014,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9">
         <v>42828</v>
       </c>
@@ -12059,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9">
         <v>42829</v>
       </c>
@@ -12104,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9">
         <v>42830</v>
       </c>
@@ -12155,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9">
         <v>42831</v>
       </c>
@@ -12200,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9">
         <v>42832</v>
       </c>
@@ -12251,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9">
         <v>42833</v>
       </c>
@@ -12281,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9">
         <v>42834</v>
       </c>
@@ -12311,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9">
         <v>42835</v>
       </c>
@@ -12356,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9">
         <v>42836</v>
       </c>
@@ -12407,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9">
         <v>42837</v>
       </c>
@@ -12452,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9">
         <v>42838</v>
       </c>
@@ -12498,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9">
         <v>42839</v>
       </c>
@@ -12543,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9">
         <v>42840</v>
       </c>
@@ -12573,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9">
         <v>42841</v>
       </c>
@@ -12603,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9">
         <v>42842</v>
       </c>
@@ -12648,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9">
         <v>42843</v>
       </c>
@@ -12693,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9">
         <v>42844</v>
       </c>
@@ -12738,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9">
         <v>42845</v>
       </c>
@@ -12789,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9">
         <v>42846</v>
       </c>
@@ -12831,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9">
         <v>42847</v>
       </c>
@@ -12861,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9">
         <v>42848</v>
       </c>
@@ -12891,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9">
         <v>42849</v>
       </c>
@@ -12933,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9">
         <v>42850</v>
       </c>
@@ -12976,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9">
         <v>42851</v>
       </c>
@@ -13028,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9">
         <v>42852</v>
       </c>
@@ -13073,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9">
         <v>42853</v>
       </c>
@@ -13118,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9">
         <v>42854</v>
       </c>
@@ -13148,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9">
         <v>42855</v>
       </c>
@@ -13178,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9">
         <v>42856</v>
       </c>
@@ -13210,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9">
         <v>42857</v>
       </c>
@@ -13252,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9">
         <v>42858</v>
       </c>
@@ -13300,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9">
         <v>42859</v>
       </c>
@@ -13343,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9">
         <v>42860</v>
       </c>
@@ -13385,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9">
         <v>42861</v>
       </c>
@@ -13415,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9">
         <v>42862</v>
       </c>
@@ -13445,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9">
         <v>42863</v>
       </c>
@@ -13487,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9">
         <v>42864</v>
       </c>
@@ -13529,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9">
         <v>42865</v>
       </c>
@@ -13577,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9">
         <v>42866</v>
       </c>
@@ -13619,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9">
         <v>42867</v>
       </c>
@@ -13661,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9">
         <v>42868</v>
       </c>
@@ -13691,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9">
         <v>42869</v>
       </c>
@@ -13721,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9">
         <v>42870</v>
       </c>
@@ -13763,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9">
         <v>42871</v>
       </c>
@@ -13805,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9">
         <v>42872</v>
       </c>
@@ -13847,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9">
         <v>42873</v>
       </c>
@@ -13889,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9">
         <v>42874</v>
       </c>
@@ -13932,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9">
         <v>42875</v>
       </c>
@@ -13962,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9">
         <v>42876</v>
       </c>
@@ -13992,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9">
         <v>42877</v>
       </c>
@@ -14024,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9">
         <v>42878</v>
       </c>
@@ -14056,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9">
         <v>42879</v>
       </c>
@@ -14088,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9">
         <v>42880</v>
       </c>
@@ -14130,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9">
         <v>42881</v>
       </c>
@@ -14172,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9">
         <v>42882</v>
       </c>
@@ -14202,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9">
         <v>42883</v>
       </c>
@@ -14232,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9">
         <v>42884</v>
       </c>
@@ -14274,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9">
         <v>42885</v>
       </c>
@@ -14322,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9">
         <v>42886</v>
       </c>
@@ -14365,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" s="9">
         <v>42887</v>
       </c>
@@ -14401,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" s="9">
         <v>42888</v>
       </c>
@@ -14437,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9">
         <v>42889</v>
       </c>
@@ -14467,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9">
         <v>42890</v>
       </c>
@@ -14497,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" hidden="1">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" s="9">
         <v>42891</v>
       </c>
@@ -14529,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" s="9">
         <v>42892</v>
       </c>
@@ -14561,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" s="9">
         <v>42893</v>
       </c>
@@ -14593,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" s="9">
         <v>42894</v>
       </c>
@@ -14629,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" s="9">
         <v>42895</v>
       </c>
@@ -14665,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9">
         <v>42896</v>
       </c>
@@ -14695,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9">
         <v>42897</v>
       </c>
@@ -14725,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" hidden="1">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" s="9">
         <v>42898</v>
       </c>
@@ -14757,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" hidden="1">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" s="9">
         <v>42899</v>
       </c>
@@ -14789,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" s="9">
         <v>42900</v>
       </c>
@@ -14821,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" hidden="1">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" s="9">
         <v>42901</v>
       </c>
@@ -14857,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" s="9">
         <v>42902</v>
       </c>
@@ -14893,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9">
         <v>42903</v>
       </c>
@@ -14923,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9">
         <v>42904</v>
       </c>
@@ -14953,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" hidden="1">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" s="9">
         <v>42905</v>
       </c>
@@ -14989,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" s="9">
         <v>42906</v>
       </c>
@@ -15023,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" s="9">
         <v>42907</v>
       </c>
@@ -15057,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" s="9">
         <v>42908</v>
       </c>
@@ -15090,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1">
+    <row r="346" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A346" s="9">
         <v>42909</v>
       </c>
@@ -15117,12 +15150,15 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="R346" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="S346" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9">
         <v>42910</v>
       </c>
@@ -15152,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9">
         <v>42911</v>
       </c>
@@ -15182,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" hidden="1">
+    <row r="349" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A349" s="9">
         <v>42912</v>
       </c>
@@ -15209,12 +15245,15 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="R349" s="12" t="s">
+        <v>201</v>
+      </c>
       <c r="S349" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" hidden="1">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" s="9">
         <v>42913</v>
       </c>
@@ -15246,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" hidden="1">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" s="9">
         <v>42914</v>
       </c>
@@ -15278,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" s="9">
         <v>42915</v>
       </c>
@@ -15312,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" hidden="1">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" s="9">
         <v>42916</v>
       </c>
@@ -15348,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9">
         <v>42917</v>
       </c>
@@ -15378,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9">
         <v>42918</v>
       </c>
@@ -15408,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A356" s="9">
         <v>42919</v>
       </c>
@@ -15435,16 +15474,22 @@
       <c r="J356" s="13">
         <v>0.35416666666666669</v>
       </c>
+      <c r="M356" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N356" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q356" s="11">
         <f t="shared" si="45"/>
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="S356" s="10" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A357" s="9">
         <v>42920</v>
       </c>
@@ -15480,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27.6">
+    <row r="358" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A358" s="9">
         <v>42921</v>
       </c>
@@ -15525,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A359" s="9">
         <v>42922</v>
       </c>
@@ -15561,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A360" s="9">
         <v>42923</v>
       </c>
@@ -15597,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9">
         <v>42924</v>
       </c>
@@ -15627,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9">
         <v>42925</v>
       </c>
@@ -15657,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A363" s="9">
         <v>42926</v>
       </c>
@@ -15684,16 +15729,22 @@
       <c r="J363" s="13">
         <v>0.35416666666666669</v>
       </c>
+      <c r="M363" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N363" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q363" s="11">
         <f t="shared" si="45"/>
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="S363" s="10" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A364" s="9">
         <v>42927</v>
       </c>
@@ -15729,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A365" s="9">
         <v>42928</v>
       </c>
@@ -15765,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A366" s="9">
         <v>42929</v>
       </c>
@@ -15792,16 +15843,22 @@
       <c r="J366" s="13">
         <v>0.35416666666666669</v>
       </c>
+      <c r="M366" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N366" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q366" s="11">
         <f t="shared" si="45"/>
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="S366" s="10" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A367" s="9">
         <v>42930</v>
       </c>
@@ -15837,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9">
         <v>42931</v>
       </c>
@@ -15867,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9">
         <v>42932</v>
       </c>
@@ -15897,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:19">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9">
         <v>42933</v>
       </c>
@@ -15913,21 +15970,27 @@
         <f t="shared" si="44"/>
         <v>29</v>
       </c>
-      <c r="E370" s="10"/>
+      <c r="E370" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H370" s="11" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
+      <c r="J370" s="13"/>
       <c r="Q370" s="11" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="R370" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="S370" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A371" s="9">
         <v>42934</v>
       </c>
@@ -15948,16 +16011,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q371" s="11" t="str">
+      <c r="I371" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J371" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q371" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S371" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:19">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A372" s="9">
         <v>42935</v>
       </c>
@@ -15978,16 +16047,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q372" s="11" t="str">
+      <c r="M372" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N372" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q372" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S372" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:19">
+    <row r="373" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A373" s="9">
         <v>42936</v>
       </c>
@@ -16004,20 +16079,36 @@
         <v>29</v>
       </c>
       <c r="E373" s="10"/>
+      <c r="F373" s="13"/>
       <c r="H373" s="11" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q373" s="11" t="str">
+      <c r="I373" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J373" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="M373" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N373" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q373" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="R373" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="S373" s="10" t="b">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A374" s="9">
         <v>42937</v>
       </c>
@@ -16038,16 +16129,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q374" s="11" t="str">
+      <c r="M374" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N374" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q374" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S374" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19" hidden="1">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9">
         <v>42938</v>
       </c>
@@ -16077,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19" hidden="1">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9">
         <v>42939</v>
       </c>
@@ -16107,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A377" s="9">
         <v>42940</v>
       </c>
@@ -16124,20 +16221,29 @@
         <v>30</v>
       </c>
       <c r="E377" s="10"/>
+      <c r="F377" s="13">
+        <v>0.34375</v>
+      </c>
       <c r="H377" s="11" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q377" s="11" t="str">
+      <c r="M377" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N377" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q377" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S377" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A378" s="9">
         <v>42941</v>
       </c>
@@ -16158,16 +16264,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q378" s="11" t="str">
+      <c r="M378" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N378" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q378" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S378" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A379" s="9">
         <v>42942</v>
       </c>
@@ -16188,16 +16300,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q379" s="11" t="str">
+      <c r="M379" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N379" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q379" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S379" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A380" s="9">
         <v>42943</v>
       </c>
@@ -16218,16 +16336,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q380" s="11" t="str">
+      <c r="M380" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N380" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q380" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S380" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381" s="9">
         <v>42944</v>
       </c>
@@ -16248,16 +16372,22 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q381" s="11" t="str">
+      <c r="M381" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N381" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="Q381" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="S381" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19" hidden="1">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9">
         <v>42945</v>
       </c>
@@ -16287,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19" hidden="1">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9">
         <v>42946</v>
       </c>
@@ -16317,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19">
+    <row r="384" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A384" s="9">
         <v>42947</v>
       </c>
@@ -16338,16 +16468,31 @@
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="Q384" s="11" t="str">
+      <c r="I384" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J384" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M384" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N384" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="Q384" s="11">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="R384" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="S384" s="10" t="b">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19" hidden="1">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9">
         <v>42948</v>
       </c>
@@ -16377,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19" hidden="1">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9">
         <v>42949</v>
       </c>
@@ -16407,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19" hidden="1">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9">
         <v>42950</v>
       </c>
@@ -16437,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9">
         <v>42951</v>
       </c>
@@ -16467,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9">
         <v>42952</v>
       </c>
@@ -16497,7 +16642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9">
         <v>42953</v>
       </c>
@@ -16527,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9">
         <v>42954</v>
       </c>
@@ -16557,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9">
         <v>42955</v>
       </c>
@@ -16587,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" hidden="1">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9">
         <v>42956</v>
       </c>
@@ -16617,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9">
         <v>42957</v>
       </c>
@@ -16647,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9">
         <v>42958</v>
       </c>
@@ -16677,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:19" hidden="1">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9">
         <v>42959</v>
       </c>
@@ -16707,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9">
         <v>42960</v>
       </c>
@@ -16737,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9">
         <v>42961</v>
       </c>
@@ -16767,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9">
         <v>42962</v>
       </c>
@@ -16797,7 +16942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9">
         <v>42963</v>
       </c>
@@ -16827,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9">
         <v>42964</v>
       </c>
@@ -16857,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9">
         <v>42965</v>
       </c>
@@ -16887,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9">
         <v>42966</v>
       </c>
@@ -16917,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9">
         <v>42967</v>
       </c>
@@ -16947,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9">
         <v>42968</v>
       </c>
@@ -16977,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19" hidden="1">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9">
         <v>42969</v>
       </c>
@@ -17007,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9">
         <v>42970</v>
       </c>
@@ -17037,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9">
         <v>42971</v>
       </c>
@@ -17067,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19" hidden="1">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9">
         <v>42972</v>
       </c>
@@ -17097,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" hidden="1">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9">
         <v>42973</v>
       </c>
@@ -17127,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9">
         <v>42974</v>
       </c>
@@ -17157,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9">
         <v>42975</v>
       </c>
@@ -17187,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9">
         <v>42976</v>
       </c>
@@ -17217,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9">
         <v>42977</v>
       </c>
@@ -17247,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" hidden="1">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9">
         <v>42978</v>
       </c>
@@ -17277,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" hidden="1">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9">
         <v>42979</v>
       </c>
@@ -17307,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" hidden="1">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9">
         <v>42980</v>
       </c>
@@ -17337,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" hidden="1">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9">
         <v>42981</v>
       </c>
@@ -17367,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" hidden="1">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9">
         <v>42982</v>
       </c>
@@ -17397,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:19" hidden="1">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9">
         <v>42983</v>
       </c>
@@ -17427,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" hidden="1">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9">
         <v>42984</v>
       </c>
@@ -17457,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" hidden="1">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9">
         <v>42985</v>
       </c>
@@ -17487,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9">
         <v>42986</v>
       </c>
@@ -17517,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" hidden="1">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9">
         <v>42987</v>
       </c>
@@ -17547,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" hidden="1">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9">
         <v>42988</v>
       </c>
@@ -17577,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9">
         <v>42989</v>
       </c>
@@ -17607,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" hidden="1">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9">
         <v>42990</v>
       </c>
@@ -17637,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" hidden="1">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9">
         <v>42991</v>
       </c>
@@ -17667,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:19" hidden="1">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9">
         <v>42992</v>
       </c>
@@ -17697,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" hidden="1">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9">
         <v>42993</v>
       </c>
@@ -17727,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9">
         <v>42994</v>
       </c>
@@ -17757,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" hidden="1">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9">
         <v>42995</v>
       </c>
@@ -17787,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:19" hidden="1">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9">
         <v>42996</v>
       </c>
@@ -17817,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:19" hidden="1">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="9">
         <v>42997</v>
       </c>
@@ -17847,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:19" hidden="1">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9">
         <v>42998</v>
       </c>
@@ -17877,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:19" hidden="1">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9">
         <v>42999</v>
       </c>
@@ -17907,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:19" hidden="1">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9">
         <v>43000</v>
       </c>
@@ -17937,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:19" hidden="1">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="9">
         <v>43001</v>
       </c>
@@ -17967,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9">
         <v>43002</v>
       </c>
@@ -17997,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:19" hidden="1">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9">
         <v>43003</v>
       </c>
@@ -18027,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19" hidden="1">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="9">
         <v>43004</v>
       </c>
@@ -18057,7 +18202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:19" hidden="1">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9">
         <v>43005</v>
       </c>
@@ -18087,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:19" hidden="1">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9">
         <v>43006</v>
       </c>
@@ -18117,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:19" hidden="1">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9">
         <v>43007</v>
       </c>
@@ -18147,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:19" hidden="1">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9">
         <v>43008</v>
       </c>
@@ -18177,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:19" hidden="1">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="9">
         <v>43009</v>
       </c>
@@ -18207,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:19" hidden="1">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9">
         <v>43010</v>
       </c>
@@ -18237,166 +18382,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q448" s="11"/>
     </row>
-    <row r="449" spans="17:17">
+    <row r="449" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q449" s="11"/>
     </row>
-    <row r="450" spans="17:17">
+    <row r="450" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q450" s="11"/>
     </row>
-    <row r="451" spans="17:17">
+    <row r="451" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q451" s="11"/>
     </row>
-    <row r="452" spans="17:17">
+    <row r="452" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q452" s="11"/>
     </row>
-    <row r="453" spans="17:17">
+    <row r="453" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q453" s="11"/>
     </row>
-    <row r="454" spans="17:17">
+    <row r="454" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q454" s="11"/>
     </row>
-    <row r="455" spans="17:17">
+    <row r="455" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q455" s="11"/>
     </row>
-    <row r="456" spans="17:17">
+    <row r="456" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q456" s="11"/>
     </row>
-    <row r="457" spans="17:17">
+    <row r="457" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q457" s="11"/>
     </row>
-    <row r="458" spans="17:17">
+    <row r="458" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q458" s="11"/>
     </row>
-    <row r="459" spans="17:17">
+    <row r="459" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q459" s="11"/>
     </row>
-    <row r="460" spans="17:17">
+    <row r="460" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q460" s="11"/>
     </row>
-    <row r="461" spans="17:17">
+    <row r="461" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q461" s="11"/>
     </row>
-    <row r="462" spans="17:17">
+    <row r="462" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q462" s="11"/>
     </row>
-    <row r="463" spans="17:17">
+    <row r="463" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q463" s="11"/>
     </row>
-    <row r="464" spans="17:17">
+    <row r="464" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q464" s="11"/>
     </row>
-    <row r="465" spans="17:17">
+    <row r="465" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q465" s="11"/>
     </row>
-    <row r="466" spans="17:17">
+    <row r="466" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q466" s="11"/>
     </row>
-    <row r="467" spans="17:17">
+    <row r="467" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q467" s="11"/>
     </row>
-    <row r="468" spans="17:17">
+    <row r="468" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q468" s="11"/>
     </row>
-    <row r="469" spans="17:17">
+    <row r="469" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q469" s="11"/>
     </row>
-    <row r="470" spans="17:17">
+    <row r="470" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q470" s="11"/>
     </row>
-    <row r="471" spans="17:17">
+    <row r="471" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q471" s="11"/>
     </row>
-    <row r="472" spans="17:17">
+    <row r="472" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q472" s="11"/>
     </row>
-    <row r="473" spans="17:17">
+    <row r="473" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q473" s="11"/>
     </row>
-    <row r="474" spans="17:17">
+    <row r="474" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q474" s="11"/>
     </row>
-    <row r="475" spans="17:17">
+    <row r="475" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q475" s="11"/>
     </row>
-    <row r="476" spans="17:17">
+    <row r="476" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q476" s="11"/>
     </row>
-    <row r="477" spans="17:17">
+    <row r="477" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q477" s="11"/>
     </row>
-    <row r="478" spans="17:17">
+    <row r="478" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q478" s="11"/>
     </row>
-    <row r="479" spans="17:17">
+    <row r="479" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q479" s="11"/>
     </row>
-    <row r="480" spans="17:17">
+    <row r="480" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q480" s="11"/>
     </row>
-    <row r="481" spans="17:17">
+    <row r="481" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q481" s="11"/>
     </row>
-    <row r="482" spans="17:17">
+    <row r="482" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q482" s="11"/>
     </row>
-    <row r="483" spans="17:17">
+    <row r="483" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q483" s="11"/>
     </row>
-    <row r="484" spans="17:17">
+    <row r="484" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q484" s="11"/>
     </row>
-    <row r="485" spans="17:17">
+    <row r="485" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q485" s="11"/>
     </row>
-    <row r="486" spans="17:17">
+    <row r="486" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q486" s="11"/>
     </row>
-    <row r="487" spans="17:17">
+    <row r="487" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q487" s="11"/>
     </row>
-    <row r="488" spans="17:17">
+    <row r="488" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q488" s="11"/>
     </row>
-    <row r="489" spans="17:17">
+    <row r="489" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q489" s="11"/>
     </row>
-    <row r="490" spans="17:17">
+    <row r="490" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q490" s="11"/>
     </row>
-    <row r="491" spans="17:17">
+    <row r="491" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q491" s="11"/>
     </row>
-    <row r="492" spans="17:17">
+    <row r="492" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q492" s="11"/>
     </row>
-    <row r="493" spans="17:17">
+    <row r="493" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q493" s="11"/>
     </row>
-    <row r="494" spans="17:17">
+    <row r="494" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q494" s="11"/>
     </row>
-    <row r="495" spans="17:17">
+    <row r="495" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q495" s="11"/>
     </row>
-    <row r="496" spans="17:17">
+    <row r="496" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q496" s="11"/>
     </row>
-    <row r="497" spans="17:17">
+    <row r="497" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q497" s="11"/>
     </row>
-    <row r="498" spans="17:17">
+    <row r="498" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q498" s="11"/>
     </row>
-    <row r="499" spans="17:17">
+    <row r="499" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q499" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T447">
     <filterColumn colId="0">
       <filters>
+        <dateGroupItem year="2017" month="6" dateTimeGrouping="month"/>
         <dateGroupItem year="2017" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
@@ -18409,20 +18555,23 @@
         <filter val="6"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="K1:L184 I1:J239 K186:L259 F310:I310 A1:H1048576 H336:I337 H328:I330 H349:I352 H343:I346 K261:L1048576 M1:S1048576 I242:J1048576">
-    <cfRule type="expression" dxfId="21" priority="3">
+  <conditionalFormatting sqref="K1:L184 I1:J239 K186:L259 F310:I310 H336:I337 H328:I330 H349:I352 H343:I346 K261:L1048576 A1:H1048576 I242:J1048576 M1:S1048576">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$S1=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>IF(OR($B1=7,$B1=1,$E1="Leave",$E1="Holiday"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:L260">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$S260=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>IF(OR($B260=7,$B260=1,$E260="Leave",$E260="Holiday"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18432,14 +18581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -18453,7 +18602,7 @@
     <col min="10" max="10" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1">
+    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>19</v>
       </c>
@@ -18485,7 +18634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>172</v>
       </c>
@@ -18520,7 +18669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>186</v>
       </c>
@@ -18556,7 +18705,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>191</v>
       </c>
@@ -18591,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>193</v>
       </c>
@@ -18626,7 +18775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>195</v>
       </c>
@@ -18666,7 +18815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -18674,7 +18823,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="47" customWidth="1"/>
@@ -18690,7 +18839,7 @@
     <col min="12" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54">
+    <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>144</v>
       </c>
@@ -18725,7 +18874,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="51" customFormat="1" ht="15">
+    <row r="2" spans="1:11" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
@@ -18752,7 +18901,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" ht="15" hidden="1">
+    <row r="3" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>165</v>
       </c>
@@ -18777,7 +18926,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="43.2">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>72</v>
       </c>
@@ -18800,7 +18949,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1">
+    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>22</v>
       </c>
@@ -18823,7 +18972,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1">
+    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>167</v>
       </c>
@@ -18848,7 +18997,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>169</v>
       </c>
@@ -18880,12 +19029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -18900,7 +19049,7 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>144</v>
       </c>
@@ -18935,7 +19084,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -18972,7 +19121,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>71</v>
       </c>
@@ -19007,7 +19156,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>72</v>
       </c>
@@ -19040,7 +19189,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
@@ -19073,7 +19222,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>73</v>
       </c>
@@ -19106,7 +19255,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -19151,26 +19300,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
@@ -19181,7 +19330,7 @@
     <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
         <v>29</v>
       </c>
@@ -19197,7 +19346,7 @@
       </c>
       <c r="G3" s="65"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="65"/>
       <c r="C4" s="67"/>
       <c r="D4" s="1" t="s">
@@ -19213,7 +19362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -19233,7 +19382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -19253,7 +19402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -19273,7 +19422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -19293,7 +19442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -19313,7 +19462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -19333,7 +19482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -19353,7 +19502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -19373,7 +19522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -19393,7 +19542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -19413,7 +19562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -19433,7 +19582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -19453,7 +19602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -19473,7 +19622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -19493,7 +19642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -19513,7 +19662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -19533,7 +19682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -19553,7 +19702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>18</v>
       </c>
@@ -19573,7 +19722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
@@ -19584,7 +19733,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" ht="28.8">
+    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>64</v>
       </c>
@@ -19607,7 +19756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="28.8">
+    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
@@ -19622,7 +19771,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" ht="28.8">
+    <row r="29" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
@@ -19637,7 +19786,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" ht="28.8">
+    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
@@ -19650,7 +19799,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" ht="28.8">
+    <row r="31" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>69</v>
       </c>
@@ -19677,7 +19826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W55"/>
   <sheetViews>
@@ -19685,95 +19834,95 @@
       <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-    </row>
-    <row r="4" spans="1:23" ht="28.2" thickBot="1">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="22" t="s">
         <v>89</v>
       </c>
@@ -19801,10 +19950,10 @@
       <c r="L4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="82"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="22" t="s">
         <v>98</v>
       </c>
@@ -19823,18 +19972,18 @@
       <c r="T4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="82"/>
+      <c r="V4" s="79"/>
       <c r="W4" s="23"/>
     </row>
-    <row r="5" spans="1:23" ht="15" hidden="1" thickBot="1">
+    <row r="5" spans="1:23" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -19844,8 +19993,8 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="82"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -19854,18 +20003,18 @@
       <c r="T5" s="25">
         <v>325500</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="82"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -19875,8 +20024,8 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -19887,19 +20036,19 @@
       <c r="T6" s="27">
         <v>29500</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="V6" s="74"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="75">
+      <c r="B7" s="71">
         <v>6008518500</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="28" t="s">
         <v>109</v>
       </c>
@@ -19922,10 +20071,10 @@
         <v>110</v>
       </c>
       <c r="L7" s="21"/>
-      <c r="M7" s="78">
+      <c r="M7" s="74">
         <v>9081250</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21" t="s">
@@ -19940,19 +20089,19 @@
       <c r="T7" s="27">
         <v>2000</v>
       </c>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="79"/>
+      <c r="V7" s="75"/>
       <c r="W7" s="23"/>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="75">
+      <c r="B8" s="71">
         <v>6008518500</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="28" t="s">
         <v>109</v>
       </c>
@@ -19977,10 +20126,10 @@
       <c r="L8" s="28">
         <v>9629</v>
       </c>
-      <c r="M8" s="75">
+      <c r="M8" s="71">
         <v>10</v>
       </c>
-      <c r="N8" s="77"/>
+      <c r="N8" s="73"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28" t="s">
@@ -19995,19 +20144,19 @@
       <c r="T8" s="30">
         <v>2000</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="U8" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="V8" s="77"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="23"/>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="75">
+      <c r="B9" s="71">
         <v>6008518500</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="28" t="s">
         <v>109</v>
       </c>
@@ -20032,10 +20181,10 @@
       <c r="L9" s="21">
         <v>9629</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="74">
         <v>70</v>
       </c>
-      <c r="N9" s="79"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21" t="s">
@@ -20050,19 +20199,19 @@
       <c r="T9" s="27">
         <v>8500</v>
       </c>
-      <c r="U9" s="78" t="s">
+      <c r="U9" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="V9" s="79"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="75">
+      <c r="B10" s="71">
         <v>6008518604</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="28" t="s">
         <v>109</v>
       </c>
@@ -20085,8 +20234,8 @@
         <v>110</v>
       </c>
       <c r="L10" s="28"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="77"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="28">
         <v>6072122</v>
       </c>
@@ -20105,18 +20254,18 @@
       <c r="T10" s="30">
         <v>17000</v>
       </c>
-      <c r="U10" s="75" t="s">
+      <c r="U10" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="77"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -20126,8 +20275,8 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="75"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -20138,19 +20287,19 @@
       <c r="T11" s="27">
         <v>35000</v>
       </c>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="V11" s="79"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="23"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="75">
+      <c r="B12" s="71">
         <v>6008522360</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="28" t="s">
         <v>109</v>
       </c>
@@ -20173,8 +20322,8 @@
         <v>110</v>
       </c>
       <c r="L12" s="21"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="21">
         <v>6072122</v>
       </c>
@@ -20193,19 +20342,19 @@
       <c r="T12" s="27">
         <v>17000</v>
       </c>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="V12" s="79"/>
+      <c r="V12" s="75"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <v>6008522374</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="28" t="s">
         <v>109</v>
       </c>
@@ -20228,10 +20377,10 @@
         <v>110</v>
       </c>
       <c r="L13" s="28"/>
-      <c r="M13" s="75">
+      <c r="M13" s="71">
         <v>9081250</v>
       </c>
-      <c r="N13" s="77"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28" t="s">
@@ -20246,19 +20395,19 @@
       <c r="T13" s="30">
         <v>2000</v>
       </c>
-      <c r="U13" s="75" t="s">
+      <c r="U13" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V13" s="77"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
-      <c r="B14" s="75">
+      <c r="B14" s="71">
         <v>6008522374</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="28" t="s">
         <v>109</v>
       </c>
@@ -20283,10 +20432,10 @@
       <c r="L14" s="21">
         <v>9629</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="74">
         <v>10</v>
       </c>
-      <c r="N14" s="79"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21" t="s">
@@ -20301,19 +20450,19 @@
       <c r="T14" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="78" t="s">
+      <c r="U14" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="V14" s="79"/>
+      <c r="V14" s="75"/>
       <c r="W14" s="23"/>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <v>6008522374</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="28" t="s">
         <v>109</v>
       </c>
@@ -20338,10 +20487,10 @@
       <c r="L15" s="28">
         <v>9629</v>
       </c>
-      <c r="M15" s="75">
+      <c r="M15" s="71">
         <v>10</v>
       </c>
-      <c r="N15" s="77"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28" t="s">
@@ -20356,19 +20505,19 @@
       <c r="T15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="75" t="s">
+      <c r="U15" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V15" s="77"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="23"/>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="75">
+      <c r="B16" s="71">
         <v>6008522374</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="28" t="s">
         <v>109</v>
       </c>
@@ -20393,10 +20542,10 @@
       <c r="L16" s="21">
         <v>9629</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="74">
         <v>10</v>
       </c>
-      <c r="N16" s="79"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21" t="s">
@@ -20411,18 +20560,18 @@
       <c r="T16" s="27">
         <v>15000</v>
       </c>
-      <c r="U16" s="78" t="s">
+      <c r="U16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="V16" s="79"/>
+      <c r="V16" s="75"/>
       <c r="W16" s="23"/>
     </row>
-    <row r="17" spans="1:23" hidden="1">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -20432,8 +20581,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
@@ -20444,19 +20593,19 @@
       <c r="T17" s="27">
         <v>17000</v>
       </c>
-      <c r="U17" s="78" t="s">
+      <c r="U17" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="V17" s="79"/>
+      <c r="V17" s="75"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" spans="1:23" hidden="1">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="75">
+      <c r="B18" s="71">
         <v>6008524034</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="28" t="s">
         <v>109</v>
       </c>
@@ -20479,10 +20628,10 @@
         <v>110</v>
       </c>
       <c r="L18" s="28"/>
-      <c r="M18" s="75">
+      <c r="M18" s="71">
         <v>9081250</v>
       </c>
-      <c r="N18" s="77"/>
+      <c r="N18" s="73"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28" t="s">
@@ -20497,19 +20646,19 @@
       <c r="T18" s="30">
         <v>2000</v>
       </c>
-      <c r="U18" s="75" t="s">
+      <c r="U18" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V18" s="77"/>
+      <c r="V18" s="73"/>
       <c r="W18" s="23"/>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <v>6008524034</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="28" t="s">
         <v>109</v>
       </c>
@@ -20534,10 +20683,10 @@
       <c r="L19" s="21">
         <v>9629</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="74">
         <v>10</v>
       </c>
-      <c r="N19" s="79"/>
+      <c r="N19" s="75"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21" t="s">
@@ -20552,19 +20701,19 @@
       <c r="T19" s="27">
         <v>8500</v>
       </c>
-      <c r="U19" s="78" t="s">
+      <c r="U19" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="V19" s="79"/>
+      <c r="V19" s="75"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
-      <c r="B20" s="75">
+      <c r="B20" s="71">
         <v>6008524035</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="28" t="s">
         <v>109</v>
       </c>
@@ -20587,8 +20736,8 @@
         <v>110</v>
       </c>
       <c r="L20" s="28"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="77"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="28">
         <v>6072122</v>
       </c>
@@ -20607,18 +20756,18 @@
       <c r="T20" s="30">
         <v>6500</v>
       </c>
-      <c r="U20" s="75" t="s">
+      <c r="U20" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="V20" s="77"/>
+      <c r="V20" s="73"/>
       <c r="W20" s="23"/>
     </row>
-    <row r="21" spans="1:23" hidden="1">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -20628,8 +20777,8 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="75"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
@@ -20640,19 +20789,19 @@
       <c r="T21" s="27">
         <v>54500</v>
       </c>
-      <c r="U21" s="78" t="s">
+      <c r="U21" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="79"/>
+      <c r="V21" s="75"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="75">
+      <c r="B22" s="71">
         <v>6008525157</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="28" t="s">
         <v>109</v>
       </c>
@@ -20675,8 +20824,8 @@
         <v>110</v>
       </c>
       <c r="L22" s="21"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="21">
         <v>6072122</v>
       </c>
@@ -20695,19 +20844,19 @@
       <c r="T22" s="27">
         <v>19000</v>
       </c>
-      <c r="U22" s="78" t="s">
+      <c r="U22" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="V22" s="79"/>
+      <c r="V22" s="75"/>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" spans="1:23" hidden="1">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
-      <c r="B23" s="75">
+      <c r="B23" s="71">
         <v>6008525158</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="28" t="s">
         <v>109</v>
       </c>
@@ -20730,10 +20879,10 @@
         <v>110</v>
       </c>
       <c r="L23" s="28"/>
-      <c r="M23" s="75">
+      <c r="M23" s="71">
         <v>9081250</v>
       </c>
-      <c r="N23" s="77"/>
+      <c r="N23" s="73"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="28" t="s">
@@ -20748,19 +20897,19 @@
       <c r="T23" s="30">
         <v>2000</v>
       </c>
-      <c r="U23" s="75" t="s">
+      <c r="U23" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V23" s="77"/>
+      <c r="V23" s="73"/>
       <c r="W23" s="23"/>
     </row>
-    <row r="24" spans="1:23" hidden="1">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
-      <c r="B24" s="75">
+      <c r="B24" s="71">
         <v>6008525158</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="28" t="s">
         <v>109</v>
       </c>
@@ -20785,10 +20934,10 @@
       <c r="L24" s="21">
         <v>9629</v>
       </c>
-      <c r="M24" s="78">
+      <c r="M24" s="74">
         <v>10</v>
       </c>
-      <c r="N24" s="79"/>
+      <c r="N24" s="75"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21" t="s">
@@ -20803,19 +20952,19 @@
       <c r="T24" s="27">
         <v>20500</v>
       </c>
-      <c r="U24" s="78" t="s">
+      <c r="U24" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="V24" s="79"/>
+      <c r="V24" s="75"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="75">
+      <c r="B25" s="71">
         <v>6008525158</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="28" t="s">
         <v>109</v>
       </c>
@@ -20840,10 +20989,10 @@
       <c r="L25" s="28">
         <v>9629</v>
       </c>
-      <c r="M25" s="75">
+      <c r="M25" s="71">
         <v>10</v>
       </c>
-      <c r="N25" s="77"/>
+      <c r="N25" s="73"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28" t="s">
@@ -20858,19 +21007,19 @@
       <c r="T25" s="30">
         <v>1000</v>
       </c>
-      <c r="U25" s="75" t="s">
+      <c r="U25" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="V25" s="77"/>
+      <c r="V25" s="73"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="75">
+      <c r="B26" s="71">
         <v>6008525159</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="28" t="s">
         <v>109</v>
       </c>
@@ -20893,8 +21042,8 @@
         <v>110</v>
       </c>
       <c r="L26" s="21"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
       <c r="O26" s="21">
         <v>6072122</v>
       </c>
@@ -20913,19 +21062,19 @@
       <c r="T26" s="27">
         <v>4000</v>
       </c>
-      <c r="U26" s="78" t="s">
+      <c r="U26" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="V26" s="79"/>
+      <c r="V26" s="75"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
-      <c r="B27" s="75">
+      <c r="B27" s="71">
         <v>6008525164</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="28" t="s">
         <v>109</v>
       </c>
@@ -20948,8 +21097,8 @@
         <v>110</v>
       </c>
       <c r="L27" s="28"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="77"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="73"/>
       <c r="O27" s="28">
         <v>6073376</v>
       </c>
@@ -20968,18 +21117,18 @@
       <c r="T27" s="30">
         <v>8000</v>
       </c>
-      <c r="U27" s="75" t="s">
+      <c r="U27" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="V27" s="77"/>
+      <c r="V27" s="73"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="1:23" hidden="1">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -20989,8 +21138,8 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="79"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -21001,19 +21150,19 @@
       <c r="T28" s="27">
         <v>25500</v>
       </c>
-      <c r="U28" s="78" t="s">
+      <c r="U28" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="V28" s="79"/>
+      <c r="V28" s="75"/>
       <c r="W28" s="23"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
-      <c r="B29" s="75">
+      <c r="B29" s="71">
         <v>6008532583</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="28" t="s">
         <v>109</v>
       </c>
@@ -21036,8 +21185,8 @@
         <v>110</v>
       </c>
       <c r="L29" s="21"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="79"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="21">
         <v>6072122</v>
       </c>
@@ -21056,19 +21205,19 @@
       <c r="T29" s="27">
         <v>8500</v>
       </c>
-      <c r="U29" s="78" t="s">
+      <c r="U29" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="V29" s="79"/>
+      <c r="V29" s="75"/>
       <c r="W29" s="23"/>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
-      <c r="B30" s="75">
+      <c r="B30" s="71">
         <v>6008532584</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="28" t="s">
         <v>109</v>
       </c>
@@ -21091,8 +21240,8 @@
         <v>110</v>
       </c>
       <c r="L30" s="28"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="77"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="73"/>
       <c r="O30" s="28">
         <v>6073385</v>
       </c>
@@ -21111,19 +21260,19 @@
       <c r="T30" s="30">
         <v>14000</v>
       </c>
-      <c r="U30" s="75" t="s">
+      <c r="U30" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="V30" s="77"/>
+      <c r="V30" s="73"/>
       <c r="W30" s="23"/>
     </row>
-    <row r="31" spans="1:23" hidden="1">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="75">
+      <c r="B31" s="71">
         <v>6008532586</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="28" t="s">
         <v>109</v>
       </c>
@@ -21146,10 +21295,10 @@
         <v>110</v>
       </c>
       <c r="L31" s="21"/>
-      <c r="M31" s="78">
+      <c r="M31" s="74">
         <v>9081250</v>
       </c>
-      <c r="N31" s="79"/>
+      <c r="N31" s="75"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
@@ -21164,19 +21313,19 @@
       <c r="T31" s="27">
         <v>2000</v>
       </c>
-      <c r="U31" s="78" t="s">
+      <c r="U31" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="V31" s="79"/>
+      <c r="V31" s="75"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
-      <c r="B32" s="75">
+      <c r="B32" s="71">
         <v>6008532586</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="28" t="s">
         <v>109</v>
       </c>
@@ -21201,10 +21350,10 @@
       <c r="L32" s="28">
         <v>9629</v>
       </c>
-      <c r="M32" s="75">
+      <c r="M32" s="71">
         <v>10</v>
       </c>
-      <c r="N32" s="77"/>
+      <c r="N32" s="73"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28" t="s">
@@ -21219,18 +21368,18 @@
       <c r="T32" s="30">
         <v>1000</v>
       </c>
-      <c r="U32" s="75" t="s">
+      <c r="U32" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="V32" s="77"/>
+      <c r="V32" s="73"/>
       <c r="W32" s="23"/>
     </row>
-    <row r="33" spans="1:23" hidden="1">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -21240,8 +21389,8 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="79"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -21252,19 +21401,19 @@
       <c r="T33" s="27">
         <v>42500</v>
       </c>
-      <c r="U33" s="78" t="s">
+      <c r="U33" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="V33" s="79"/>
+      <c r="V33" s="75"/>
       <c r="W33" s="23"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="75">
+      <c r="B34" s="71">
         <v>6008537477</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="28" t="s">
         <v>109</v>
       </c>
@@ -21287,8 +21436,8 @@
         <v>110</v>
       </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="79"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="21">
         <v>6072122</v>
       </c>
@@ -21307,19 +21456,19 @@
       <c r="T34" s="27">
         <v>18000</v>
       </c>
-      <c r="U34" s="78" t="s">
+      <c r="U34" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="V34" s="79"/>
+      <c r="V34" s="75"/>
       <c r="W34" s="23"/>
     </row>
-    <row r="35" spans="1:23" hidden="1">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
-      <c r="B35" s="75">
+      <c r="B35" s="71">
         <v>6008537479</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="28" t="s">
         <v>109</v>
       </c>
@@ -21342,8 +21491,8 @@
         <v>110</v>
       </c>
       <c r="L35" s="28"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="77"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="73"/>
       <c r="O35" s="28">
         <v>6073385</v>
       </c>
@@ -21362,19 +21511,19 @@
       <c r="T35" s="30">
         <v>17000</v>
       </c>
-      <c r="U35" s="75" t="s">
+      <c r="U35" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="V35" s="77"/>
+      <c r="V35" s="73"/>
       <c r="W35" s="23"/>
     </row>
-    <row r="36" spans="1:23" hidden="1">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="75">
+      <c r="B36" s="71">
         <v>6008537480</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="28" t="s">
         <v>109</v>
       </c>
@@ -21397,8 +21546,8 @@
         <v>110</v>
       </c>
       <c r="L36" s="21"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="75"/>
       <c r="O36" s="21">
         <v>6073376</v>
       </c>
@@ -21417,19 +21566,19 @@
       <c r="T36" s="27">
         <v>4000</v>
       </c>
-      <c r="U36" s="78" t="s">
+      <c r="U36" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="V36" s="79"/>
+      <c r="V36" s="75"/>
       <c r="W36" s="23"/>
     </row>
-    <row r="37" spans="1:23" hidden="1">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="75">
+      <c r="B37" s="71">
         <v>6008537492</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="28" t="s">
         <v>109</v>
       </c>
@@ -21452,10 +21601,10 @@
         <v>110</v>
       </c>
       <c r="L37" s="28"/>
-      <c r="M37" s="75">
+      <c r="M37" s="71">
         <v>9081250</v>
       </c>
-      <c r="N37" s="77"/>
+      <c r="N37" s="73"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28" t="s">
@@ -21470,19 +21619,19 @@
       <c r="T37" s="30">
         <v>2000</v>
       </c>
-      <c r="U37" s="75" t="s">
+      <c r="U37" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V37" s="77"/>
+      <c r="V37" s="73"/>
       <c r="W37" s="23"/>
     </row>
-    <row r="38" spans="1:23" hidden="1">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
-      <c r="B38" s="75">
+      <c r="B38" s="71">
         <v>6008537492</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="28" t="s">
         <v>109</v>
       </c>
@@ -21507,10 +21656,10 @@
       <c r="L38" s="21">
         <v>9629</v>
       </c>
-      <c r="M38" s="78">
+      <c r="M38" s="74">
         <v>10</v>
       </c>
-      <c r="N38" s="79"/>
+      <c r="N38" s="75"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
@@ -21525,18 +21674,18 @@
       <c r="T38" s="27">
         <v>1500</v>
       </c>
-      <c r="U38" s="78" t="s">
+      <c r="U38" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="V38" s="79"/>
+      <c r="V38" s="75"/>
       <c r="W38" s="23"/>
     </row>
-    <row r="39" spans="1:23" hidden="1">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -21546,8 +21695,8 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="79"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="75"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
@@ -21558,19 +21707,19 @@
       <c r="T39" s="27">
         <v>23500</v>
       </c>
-      <c r="U39" s="78" t="s">
+      <c r="U39" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="V39" s="79"/>
+      <c r="V39" s="75"/>
       <c r="W39" s="23"/>
     </row>
-    <row r="40" spans="1:23" hidden="1">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
-      <c r="B40" s="75">
+      <c r="B40" s="71">
         <v>6008546628</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="28" t="s">
         <v>109</v>
       </c>
@@ -21593,10 +21742,10 @@
         <v>110</v>
       </c>
       <c r="L40" s="28"/>
-      <c r="M40" s="75">
+      <c r="M40" s="71">
         <v>9081250</v>
       </c>
-      <c r="N40" s="77"/>
+      <c r="N40" s="73"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28" t="s">
@@ -21611,19 +21760,19 @@
       <c r="T40" s="30">
         <v>2000</v>
       </c>
-      <c r="U40" s="75" t="s">
+      <c r="U40" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V40" s="77"/>
+      <c r="V40" s="73"/>
       <c r="W40" s="23"/>
     </row>
-    <row r="41" spans="1:23" hidden="1">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="75">
+      <c r="B41" s="71">
         <v>6008546628</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="28" t="s">
         <v>109</v>
       </c>
@@ -21648,10 +21797,10 @@
       <c r="L41" s="21">
         <v>9629</v>
       </c>
-      <c r="M41" s="78">
+      <c r="M41" s="74">
         <v>10</v>
       </c>
-      <c r="N41" s="79"/>
+      <c r="N41" s="75"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21" t="s">
@@ -21666,19 +21815,19 @@
       <c r="T41" s="27">
         <v>1500</v>
       </c>
-      <c r="U41" s="78" t="s">
+      <c r="U41" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="V41" s="79"/>
+      <c r="V41" s="75"/>
       <c r="W41" s="23"/>
     </row>
-    <row r="42" spans="1:23" hidden="1">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="75">
+      <c r="B42" s="71">
         <v>6008546628</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="28" t="s">
         <v>109</v>
       </c>
@@ -21703,10 +21852,10 @@
       <c r="L42" s="28">
         <v>9629</v>
       </c>
-      <c r="M42" s="75">
+      <c r="M42" s="71">
         <v>10</v>
       </c>
-      <c r="N42" s="77"/>
+      <c r="N42" s="73"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28" t="s">
@@ -21721,19 +21870,19 @@
       <c r="T42" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U42" s="75" t="s">
+      <c r="U42" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V42" s="77"/>
+      <c r="V42" s="73"/>
       <c r="W42" s="23"/>
     </row>
-    <row r="43" spans="1:23" hidden="1">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
-      <c r="B43" s="75">
+      <c r="B43" s="71">
         <v>6008546628</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="28" t="s">
         <v>109</v>
       </c>
@@ -21758,10 +21907,10 @@
       <c r="L43" s="21">
         <v>9629</v>
       </c>
-      <c r="M43" s="78">
+      <c r="M43" s="74">
         <v>70</v>
       </c>
-      <c r="N43" s="79"/>
+      <c r="N43" s="75"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21" t="s">
@@ -21776,19 +21925,19 @@
       <c r="T43" s="27">
         <v>4000</v>
       </c>
-      <c r="U43" s="78" t="s">
+      <c r="U43" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="V43" s="79"/>
+      <c r="V43" s="75"/>
       <c r="W43" s="23"/>
     </row>
-    <row r="44" spans="1:23" hidden="1">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
-      <c r="B44" s="75">
+      <c r="B44" s="71">
         <v>6008546629</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="28" t="s">
         <v>109</v>
       </c>
@@ -21811,8 +21960,8 @@
         <v>110</v>
       </c>
       <c r="L44" s="28"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="77"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="73"/>
       <c r="O44" s="28">
         <v>6073385</v>
       </c>
@@ -21831,19 +21980,19 @@
       <c r="T44" s="30">
         <v>7000</v>
       </c>
-      <c r="U44" s="75" t="s">
+      <c r="U44" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="V44" s="77"/>
+      <c r="V44" s="73"/>
       <c r="W44" s="23"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="75">
+      <c r="B45" s="71">
         <v>6008546631</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="28" t="s">
         <v>109</v>
       </c>
@@ -21866,8 +22015,8 @@
         <v>110</v>
       </c>
       <c r="L45" s="21"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="79"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="75"/>
       <c r="O45" s="21">
         <v>6072122</v>
       </c>
@@ -21886,18 +22035,18 @@
       <c r="T45" s="27">
         <v>8500</v>
       </c>
-      <c r="U45" s="78" t="s">
+      <c r="U45" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="V45" s="79"/>
+      <c r="V45" s="75"/>
       <c r="W45" s="23"/>
     </row>
-    <row r="46" spans="1:23" hidden="1">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -21907,8 +22056,8 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="79"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="75"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
@@ -21919,19 +22068,19 @@
       <c r="T46" s="27">
         <v>2000</v>
       </c>
-      <c r="U46" s="78" t="s">
+      <c r="U46" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="V46" s="79"/>
+      <c r="V46" s="75"/>
       <c r="W46" s="23"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
-      <c r="B47" s="75">
+      <c r="B47" s="71">
         <v>6008547487</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="28" t="s">
         <v>109</v>
       </c>
@@ -21954,8 +22103,8 @@
         <v>110</v>
       </c>
       <c r="L47" s="28"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="77"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="73"/>
       <c r="O47" s="28">
         <v>6072122</v>
       </c>
@@ -21974,18 +22123,18 @@
       <c r="T47" s="30">
         <v>2000</v>
       </c>
-      <c r="U47" s="75" t="s">
+      <c r="U47" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="V47" s="77"/>
+      <c r="V47" s="73"/>
       <c r="W47" s="23"/>
     </row>
-    <row r="48" spans="1:23" hidden="1">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="71"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -21995,8 +22144,8 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="79"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="75"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
@@ -22007,19 +22156,19 @@
       <c r="T48" s="27">
         <v>96000</v>
       </c>
-      <c r="U48" s="78" t="s">
+      <c r="U48" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="V48" s="79"/>
+      <c r="V48" s="75"/>
       <c r="W48" s="23"/>
     </row>
-    <row r="49" spans="1:23" hidden="1">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
-      <c r="B49" s="75">
+      <c r="B49" s="71">
         <v>6008556116</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="28" t="s">
         <v>109</v>
       </c>
@@ -22042,10 +22191,10 @@
         <v>110</v>
       </c>
       <c r="L49" s="21"/>
-      <c r="M49" s="78">
+      <c r="M49" s="74">
         <v>9081250</v>
       </c>
-      <c r="N49" s="79"/>
+      <c r="N49" s="75"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21" t="s">
@@ -22060,19 +22209,19 @@
       <c r="T49" s="27">
         <v>4000</v>
       </c>
-      <c r="U49" s="78" t="s">
+      <c r="U49" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="V49" s="79"/>
+      <c r="V49" s="75"/>
       <c r="W49" s="23"/>
     </row>
-    <row r="50" spans="1:23" hidden="1">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
-      <c r="B50" s="75">
+      <c r="B50" s="71">
         <v>6008556116</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="28" t="s">
         <v>109</v>
       </c>
@@ -22097,10 +22246,10 @@
       <c r="L50" s="28">
         <v>9629</v>
       </c>
-      <c r="M50" s="75">
+      <c r="M50" s="71">
         <v>30</v>
       </c>
-      <c r="N50" s="77"/>
+      <c r="N50" s="73"/>
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
       <c r="Q50" s="28" t="s">
@@ -22115,19 +22264,19 @@
       <c r="T50" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U50" s="75" t="s">
+      <c r="U50" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V50" s="77"/>
+      <c r="V50" s="73"/>
       <c r="W50" s="23"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
-      <c r="B51" s="75">
+      <c r="B51" s="71">
         <v>6008556128</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="28" t="s">
         <v>109</v>
       </c>
@@ -22150,8 +22299,8 @@
         <v>110</v>
       </c>
       <c r="L51" s="21"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="79"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="75"/>
       <c r="O51" s="21">
         <v>6072122</v>
       </c>
@@ -22170,19 +22319,19 @@
       <c r="T51" s="27">
         <v>15000</v>
       </c>
-      <c r="U51" s="78" t="s">
+      <c r="U51" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="V51" s="79"/>
+      <c r="V51" s="75"/>
       <c r="W51" s="23"/>
     </row>
-    <row r="52" spans="1:23" hidden="1">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
-      <c r="B52" s="75">
+      <c r="B52" s="71">
         <v>6008556129</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="28" t="s">
         <v>109</v>
       </c>
@@ -22205,8 +22354,8 @@
         <v>110</v>
       </c>
       <c r="L52" s="28"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="77"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="73"/>
       <c r="O52" s="28">
         <v>6073376</v>
       </c>
@@ -22225,19 +22374,19 @@
       <c r="T52" s="30">
         <v>28000</v>
       </c>
-      <c r="U52" s="75" t="s">
+      <c r="U52" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="V52" s="77"/>
+      <c r="V52" s="73"/>
       <c r="W52" s="23"/>
     </row>
-    <row r="53" spans="1:23" hidden="1">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
-      <c r="B53" s="75">
+      <c r="B53" s="71">
         <v>6008556132</v>
       </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="77"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="73"/>
       <c r="E53" s="28" t="s">
         <v>109</v>
       </c>
@@ -22260,8 +22409,8 @@
         <v>110</v>
       </c>
       <c r="L53" s="21"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="79"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="75"/>
       <c r="O53" s="21">
         <v>6073385</v>
       </c>
@@ -22280,19 +22429,19 @@
       <c r="T53" s="27">
         <v>20500</v>
       </c>
-      <c r="U53" s="78" t="s">
+      <c r="U53" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="V53" s="79"/>
+      <c r="V53" s="75"/>
       <c r="W53" s="23"/>
     </row>
-    <row r="54" spans="1:23" ht="15" hidden="1" thickBot="1">
+    <row r="54" spans="1:23" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21"/>
-      <c r="B54" s="83">
+      <c r="B54" s="68">
         <v>6008556231</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="84"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="24" t="s">
         <v>109</v>
       </c>
@@ -22315,8 +22464,8 @@
         <v>110</v>
       </c>
       <c r="L54" s="24"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="84"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="70"/>
       <c r="O54" s="24">
         <v>6073376</v>
       </c>
@@ -22335,13 +22484,13 @@
       <c r="T54" s="25">
         <v>28000</v>
       </c>
-      <c r="U54" s="83" t="s">
+      <c r="U54" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="V54" s="84"/>
+      <c r="V54" s="70"/>
       <c r="W54" s="23"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -22378,15 +22527,144 @@
     <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="159">
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="U45:V45"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="U50:V50"/>
@@ -22399,144 +22677,15 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="U49:V49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="U53:V53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="10584"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$B$4:$V$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Time Sheet'!$A$1:$T$447</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="206">
   <si>
     <t>Date</t>
   </si>
@@ -641,15 +641,24 @@
   <si>
     <t>Billed for this day even though I took a leave.</t>
   </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Billed Excess 2 days in ES</t>
+  </si>
+  <si>
+    <t>Reduced 2 days' worth of billing in ES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,13 +1150,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,9 +1186,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1177,247 +1195,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <strike/>
@@ -1706,7 +1501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1741,7 +1535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1917,15 +1710,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="R384" sqref="R384"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J384" activeCellId="4" sqref="J356:J357 J363:J371 J358 J373 J384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="12.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="10" bestFit="1" customWidth="1"/>
@@ -1945,7 +1738,7 @@
     <col min="20" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="41" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="41" customFormat="1" ht="39.6">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" hidden="1">
       <c r="A2" s="9">
         <v>42565</v>
       </c>
@@ -2034,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1">
       <c r="A3" s="9">
         <v>42566</v>
       </c>
@@ -2069,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" hidden="1">
       <c r="A4" s="9">
         <v>42567</v>
       </c>
@@ -2099,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1">
       <c r="A5" s="9">
         <v>42568</v>
       </c>
@@ -2129,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1">
       <c r="A6" s="9">
         <v>42569</v>
       </c>
@@ -2164,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1">
       <c r="A7" s="9">
         <v>42570</v>
       </c>
@@ -2199,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1">
       <c r="A8" s="9">
         <v>42571</v>
       </c>
@@ -2240,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1">
       <c r="A9" s="9">
         <v>42572</v>
       </c>
@@ -2292,7 +2085,7 @@
       </c>
       <c r="T9" s="55"/>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="9">
         <v>42573</v>
       </c>
@@ -2334,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1">
       <c r="A11" s="9">
         <v>42574</v>
       </c>
@@ -2364,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1">
       <c r="A12" s="9">
         <v>42575</v>
       </c>
@@ -2394,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1">
       <c r="A13" s="9">
         <v>42576</v>
       </c>
@@ -2430,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1">
       <c r="A14" s="9">
         <v>42577</v>
       </c>
@@ -2466,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1">
       <c r="A15" s="9">
         <v>42578</v>
       </c>
@@ -2499,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1">
       <c r="A16" s="9">
         <v>42579</v>
       </c>
@@ -2529,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" hidden="1">
       <c r="A17" s="9">
         <v>42580</v>
       </c>
@@ -2559,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" hidden="1">
       <c r="A18" s="9">
         <v>42581</v>
       </c>
@@ -2589,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" s="9">
         <v>42582</v>
       </c>
@@ -2619,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="41.4" hidden="1">
       <c r="A20" s="9">
         <v>42583</v>
       </c>
@@ -2666,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" hidden="1">
       <c r="A21" s="9">
         <v>42584</v>
       </c>
@@ -2721,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" hidden="1">
       <c r="A22" s="9">
         <v>42585</v>
       </c>
@@ -2762,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" hidden="1">
       <c r="A23" s="9">
         <v>42586</v>
       </c>
@@ -2803,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" hidden="1">
       <c r="A24" s="9">
         <v>42587</v>
       </c>
@@ -2835,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1">
       <c r="A25" s="9">
         <v>42588</v>
       </c>
@@ -2867,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" hidden="1">
       <c r="A26" s="9">
         <v>42589</v>
       </c>
@@ -2899,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1">
       <c r="A27" s="9">
         <v>42590</v>
       </c>
@@ -2940,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" s="9">
         <v>42591</v>
       </c>
@@ -2969,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" hidden="1">
       <c r="A29" s="9">
         <v>42592</v>
       </c>
@@ -2998,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" hidden="1">
       <c r="A30" s="9">
         <v>42593</v>
       </c>
@@ -3027,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" s="9">
         <v>42594</v>
       </c>
@@ -3056,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" s="9">
         <v>42595</v>
       </c>
@@ -3088,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" s="9">
         <v>42596</v>
       </c>
@@ -3120,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="69" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="69" hidden="1">
       <c r="A34" s="9">
         <v>42597</v>
       </c>
@@ -3156,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" hidden="1">
       <c r="A35" s="9">
         <v>42598</v>
       </c>
@@ -3215,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" hidden="1">
       <c r="A36" s="9">
         <v>42599</v>
       </c>
@@ -3256,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" s="9">
         <v>42600</v>
       </c>
@@ -3288,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" hidden="1">
       <c r="A38" s="9">
         <v>42601</v>
       </c>
@@ -3335,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" hidden="1">
       <c r="A39" s="9">
         <v>42602</v>
       </c>
@@ -3367,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" s="9">
         <v>42603</v>
       </c>
@@ -3399,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" s="9">
         <v>42604</v>
       </c>
@@ -3441,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" s="9">
         <v>42605</v>
       </c>
@@ -3488,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" hidden="1">
       <c r="A43" s="9">
         <v>42606</v>
       </c>
@@ -3530,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" s="9">
         <v>42607</v>
       </c>
@@ -3572,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" s="9">
         <v>42608</v>
       </c>
@@ -3625,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" hidden="1">
       <c r="A46" s="9">
         <v>42609</v>
       </c>
@@ -3657,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" s="9">
         <v>42610</v>
       </c>
@@ -3689,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="9">
         <v>42611</v>
       </c>
@@ -3731,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" s="9">
         <v>42612</v>
       </c>
@@ -3778,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" hidden="1">
       <c r="A50" s="9">
         <v>42613</v>
       </c>
@@ -3820,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" s="9">
         <v>42614</v>
       </c>
@@ -3867,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="27.6" hidden="1">
       <c r="A52" s="9">
         <v>42615</v>
       </c>
@@ -3899,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" s="9">
         <v>42616</v>
       </c>
@@ -3931,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" hidden="1">
       <c r="A54" s="9">
         <v>42617</v>
       </c>
@@ -3963,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" s="9">
         <v>42618</v>
       </c>
@@ -3996,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" hidden="1">
       <c r="A56" s="9">
         <v>42619</v>
       </c>
@@ -4043,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" s="9">
         <v>42620</v>
       </c>
@@ -4084,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" hidden="1">
       <c r="A58" s="9">
         <v>42621</v>
       </c>
@@ -4125,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="27.6" hidden="1">
       <c r="A59" s="9">
         <v>42622</v>
       </c>
@@ -4178,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="27.6" hidden="1">
       <c r="A60" s="9">
         <v>42623</v>
       </c>
@@ -4210,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" hidden="1">
       <c r="A61" s="9">
         <v>42624</v>
       </c>
@@ -4242,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" hidden="1">
       <c r="A62" s="9">
         <v>42625</v>
       </c>
@@ -4283,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="27.6" hidden="1">
       <c r="A63" s="9">
         <v>42626</v>
       </c>
@@ -4318,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" hidden="1">
       <c r="A64" s="9">
         <v>42627</v>
       </c>
@@ -4365,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" hidden="1">
       <c r="A65" s="9">
         <v>42628</v>
       </c>
@@ -4406,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" hidden="1">
       <c r="A66" s="9">
         <v>42629</v>
       </c>
@@ -4447,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" s="9">
         <v>42630</v>
       </c>
@@ -4476,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" hidden="1">
       <c r="A68" s="9">
         <v>42631</v>
       </c>
@@ -4505,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" hidden="1">
       <c r="A69" s="9">
         <v>42632</v>
       </c>
@@ -4546,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" hidden="1">
       <c r="A70" s="9">
         <v>42633</v>
       </c>
@@ -4593,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" hidden="1">
       <c r="A71" s="9">
         <v>42634</v>
       </c>
@@ -4634,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" hidden="1">
       <c r="A72" s="9">
         <v>42635</v>
       </c>
@@ -4675,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" s="9">
         <v>42636</v>
       </c>
@@ -4716,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="27.6" hidden="1">
       <c r="A74" s="9">
         <v>42637</v>
       </c>
@@ -4760,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" hidden="1">
       <c r="A75" s="9">
         <v>42638</v>
       </c>
@@ -4789,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" hidden="1">
       <c r="A76" s="9">
         <v>42639</v>
       </c>
@@ -4830,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" hidden="1">
       <c r="A77" s="9">
         <v>42640</v>
       </c>
@@ -4877,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" hidden="1">
       <c r="A78" s="9">
         <v>42641</v>
       </c>
@@ -4918,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" hidden="1">
       <c r="A79" s="9">
         <v>42642</v>
       </c>
@@ -4959,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" hidden="1">
       <c r="A80" s="9">
         <v>42643</v>
       </c>
@@ -5000,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" hidden="1">
       <c r="A81" s="9">
         <v>42644</v>
       </c>
@@ -5030,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" hidden="1">
       <c r="A82" s="9">
         <v>42645</v>
       </c>
@@ -5060,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" hidden="1">
       <c r="A83" s="9">
         <v>42646</v>
       </c>
@@ -5102,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" hidden="1">
       <c r="A84" s="9">
         <v>42647</v>
       </c>
@@ -5150,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" hidden="1">
       <c r="A85" s="9">
         <v>42648</v>
       </c>
@@ -5198,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" hidden="1">
       <c r="A86" s="9">
         <v>42649</v>
       </c>
@@ -5246,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" hidden="1">
       <c r="A87" s="9">
         <v>42650</v>
       </c>
@@ -5295,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" hidden="1">
       <c r="A88" s="9">
         <v>42651</v>
       </c>
@@ -5325,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" hidden="1">
       <c r="A89" s="9">
         <v>42652</v>
       </c>
@@ -5355,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" hidden="1">
       <c r="A90" s="9">
         <v>42653</v>
       </c>
@@ -5397,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" hidden="1">
       <c r="A91" s="9">
         <v>42654</v>
       </c>
@@ -5445,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" hidden="1">
       <c r="A92" s="9">
         <v>42655</v>
       </c>
@@ -5477,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" hidden="1">
       <c r="A93" s="9">
         <v>42656</v>
       </c>
@@ -5519,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" hidden="1">
       <c r="A94" s="9">
         <v>42657</v>
       </c>
@@ -5567,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" hidden="1">
       <c r="A95" s="9">
         <v>42658</v>
       </c>
@@ -5597,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" hidden="1">
       <c r="A96" s="9">
         <v>42659</v>
       </c>
@@ -5627,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" hidden="1">
       <c r="A97" s="9">
         <v>42660</v>
       </c>
@@ -5669,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" hidden="1">
       <c r="A98" s="9">
         <v>42661</v>
       </c>
@@ -5723,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" hidden="1">
       <c r="A99" s="9">
         <v>42662</v>
       </c>
@@ -5765,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" hidden="1">
       <c r="A100" s="9">
         <v>42663</v>
       </c>
@@ -5807,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" hidden="1">
       <c r="A101" s="9">
         <v>42664</v>
       </c>
@@ -5849,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" hidden="1">
       <c r="A102" s="9">
         <v>42665</v>
       </c>
@@ -5879,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" hidden="1">
       <c r="A103" s="9">
         <v>42666</v>
       </c>
@@ -5909,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" hidden="1">
       <c r="A104" s="9">
         <v>42667</v>
       </c>
@@ -5951,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" hidden="1">
       <c r="A105" s="9">
         <v>42668</v>
       </c>
@@ -5999,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" hidden="1">
       <c r="A106" s="9">
         <v>42669</v>
       </c>
@@ -6041,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" hidden="1">
       <c r="A107" s="9">
         <v>42670</v>
       </c>
@@ -6083,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" hidden="1">
       <c r="A108" s="9">
         <v>42671</v>
       </c>
@@ -6125,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="41.4" hidden="1">
       <c r="A109" s="9">
         <v>42672</v>
       </c>
@@ -6169,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" hidden="1">
       <c r="A110" s="9">
         <v>42673</v>
       </c>
@@ -6199,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" hidden="1">
       <c r="A111" s="9">
         <v>42674</v>
       </c>
@@ -6231,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" hidden="1">
       <c r="A112" s="9">
         <v>42675</v>
       </c>
@@ -6263,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" hidden="1">
       <c r="A113" s="9">
         <v>42676</v>
       </c>
@@ -6305,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" hidden="1">
       <c r="A114" s="9">
         <v>42677</v>
       </c>
@@ -6347,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" hidden="1">
       <c r="A115" s="9">
         <v>42678</v>
       </c>
@@ -6389,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" hidden="1">
       <c r="A116" s="9">
         <v>42679</v>
       </c>
@@ -6419,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" hidden="1">
       <c r="A117" s="9">
         <v>42680</v>
       </c>
@@ -6449,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" hidden="1">
       <c r="A118" s="9">
         <v>42681</v>
       </c>
@@ -6491,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" hidden="1">
       <c r="A119" s="9">
         <v>42682</v>
       </c>
@@ -6539,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" hidden="1">
       <c r="A120" s="9">
         <v>42683</v>
       </c>
@@ -6581,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" hidden="1">
       <c r="A121" s="9">
         <v>42684</v>
       </c>
@@ -6623,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" hidden="1">
       <c r="A122" s="9">
         <v>42685</v>
       </c>
@@ -6671,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" hidden="1">
       <c r="A123" s="9">
         <v>42686</v>
       </c>
@@ -6701,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" hidden="1">
       <c r="A124" s="9">
         <v>42687</v>
       </c>
@@ -6731,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" hidden="1">
       <c r="A125" s="9">
         <v>42688</v>
       </c>
@@ -6773,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" hidden="1">
       <c r="A126" s="9">
         <v>42689</v>
       </c>
@@ -6815,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" hidden="1">
       <c r="A127" s="9">
         <v>42690</v>
       </c>
@@ -6857,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" hidden="1">
       <c r="A128" s="9">
         <v>42691</v>
       </c>
@@ -6899,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" hidden="1">
       <c r="A129" s="9">
         <v>42692</v>
       </c>
@@ -6941,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" hidden="1">
       <c r="A130" s="9">
         <v>42693</v>
       </c>
@@ -6971,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" hidden="1">
       <c r="A131" s="9">
         <v>42694</v>
       </c>
@@ -7001,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" hidden="1">
       <c r="A132" s="9">
         <v>42695</v>
       </c>
@@ -7043,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" hidden="1">
       <c r="A133" s="9">
         <v>42696</v>
       </c>
@@ -7085,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" hidden="1">
       <c r="A134" s="9">
         <v>42697</v>
       </c>
@@ -7127,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" hidden="1">
       <c r="A135" s="9">
         <v>42698</v>
       </c>
@@ -7169,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" hidden="1">
       <c r="A136" s="9">
         <v>42699</v>
       </c>
@@ -7211,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" hidden="1">
       <c r="A137" s="9">
         <v>42700</v>
       </c>
@@ -7241,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" hidden="1">
       <c r="A138" s="9">
         <v>42701</v>
       </c>
@@ -7271,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" hidden="1">
       <c r="A139" s="9">
         <v>42702</v>
       </c>
@@ -7313,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" hidden="1">
       <c r="A140" s="9">
         <v>42703</v>
       </c>
@@ -7355,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" hidden="1">
       <c r="A141" s="9">
         <v>42704</v>
       </c>
@@ -7397,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" hidden="1">
       <c r="A142" s="9">
         <v>42705</v>
       </c>
@@ -7429,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" hidden="1">
       <c r="A143" s="9">
         <v>42706</v>
       </c>
@@ -7461,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" hidden="1">
       <c r="A144" s="9">
         <v>42707</v>
       </c>
@@ -7491,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" hidden="1">
       <c r="A145" s="9">
         <v>42708</v>
       </c>
@@ -7521,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" hidden="1">
       <c r="A146" s="9">
         <v>42709</v>
       </c>
@@ -7553,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" hidden="1">
       <c r="A147" s="9">
         <v>42710</v>
       </c>
@@ -7585,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" hidden="1">
       <c r="A148" s="9">
         <v>42711</v>
       </c>
@@ -7617,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" hidden="1">
       <c r="A149" s="9">
         <v>42712</v>
       </c>
@@ -7649,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" hidden="1">
       <c r="A150" s="9">
         <v>42713</v>
       </c>
@@ -7681,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" hidden="1">
       <c r="A151" s="9">
         <v>42714</v>
       </c>
@@ -7711,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" hidden="1">
       <c r="A152" s="9">
         <v>42715</v>
       </c>
@@ -7741,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" hidden="1">
       <c r="A153" s="9">
         <v>42716</v>
       </c>
@@ -7773,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" hidden="1">
       <c r="A154" s="9">
         <v>42717</v>
       </c>
@@ -7805,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" hidden="1">
       <c r="A155" s="9">
         <v>42718</v>
       </c>
@@ -7837,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" hidden="1">
       <c r="A156" s="9">
         <v>42719</v>
       </c>
@@ -7869,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" hidden="1">
       <c r="A157" s="9">
         <v>42720</v>
       </c>
@@ -7901,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" hidden="1">
       <c r="A158" s="9">
         <v>42721</v>
       </c>
@@ -7931,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" hidden="1">
       <c r="A159" s="9">
         <v>42722</v>
       </c>
@@ -7961,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" hidden="1">
       <c r="A160" s="9">
         <v>42723</v>
       </c>
@@ -7993,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" hidden="1">
       <c r="A161" s="9">
         <v>42724</v>
       </c>
@@ -8025,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" hidden="1">
       <c r="A162" s="9">
         <v>42725</v>
       </c>
@@ -8057,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" hidden="1">
       <c r="A163" s="9">
         <v>42726</v>
       </c>
@@ -8089,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" hidden="1">
       <c r="A164" s="9">
         <v>42727</v>
       </c>
@@ -8121,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" hidden="1">
       <c r="A165" s="9">
         <v>42728</v>
       </c>
@@ -8151,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" hidden="1">
       <c r="A166" s="9">
         <v>42729</v>
       </c>
@@ -8181,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" hidden="1">
       <c r="A167" s="9">
         <v>42730</v>
       </c>
@@ -8213,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" hidden="1">
       <c r="A168" s="9">
         <v>42731</v>
       </c>
@@ -8245,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" hidden="1">
       <c r="A169" s="9">
         <v>42732</v>
       </c>
@@ -8277,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" hidden="1">
       <c r="A170" s="9">
         <v>42733</v>
       </c>
@@ -8309,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" hidden="1">
       <c r="A171" s="9">
         <v>42734</v>
       </c>
@@ -8341,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" hidden="1">
       <c r="A172" s="9">
         <v>42735</v>
       </c>
@@ -8371,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" hidden="1">
       <c r="A173" s="9">
         <v>42736</v>
       </c>
@@ -8401,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" hidden="1">
       <c r="A174" s="9">
         <v>42737</v>
       </c>
@@ -8443,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" hidden="1">
       <c r="A175" s="9">
         <v>42738</v>
       </c>
@@ -8491,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" hidden="1">
       <c r="A176" s="9">
         <v>42739</v>
       </c>
@@ -8533,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" hidden="1">
       <c r="A177" s="9">
         <v>42740</v>
       </c>
@@ -8575,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" hidden="1">
       <c r="A178" s="9">
         <v>42741</v>
       </c>
@@ -8618,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" hidden="1">
       <c r="A179" s="9">
         <v>42742</v>
       </c>
@@ -8648,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" hidden="1">
       <c r="A180" s="9">
         <v>42743</v>
       </c>
@@ -8678,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" hidden="1">
       <c r="A181" s="9">
         <v>42744</v>
       </c>
@@ -8723,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" hidden="1">
       <c r="A182" s="9">
         <v>42745</v>
       </c>
@@ -8771,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" hidden="1">
       <c r="A183" s="9">
         <v>42746</v>
       </c>
@@ -8813,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" hidden="1">
       <c r="A184" s="9">
         <v>42747</v>
       </c>
@@ -8855,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" hidden="1">
       <c r="A185" s="9">
         <v>42748</v>
       </c>
@@ -8897,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" hidden="1">
       <c r="A186" s="9">
         <v>42749</v>
       </c>
@@ -8927,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" hidden="1">
       <c r="A187" s="9">
         <v>42750</v>
       </c>
@@ -8957,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" hidden="1">
       <c r="A188" s="9">
         <v>42751</v>
       </c>
@@ -8999,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" hidden="1">
       <c r="A189" s="9">
         <v>42752</v>
       </c>
@@ -9047,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" hidden="1">
       <c r="A190" s="9">
         <v>42753</v>
       </c>
@@ -9089,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" hidden="1">
       <c r="A191" s="9">
         <v>42754</v>
       </c>
@@ -9127,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" hidden="1">
       <c r="A192" s="9">
         <v>42755</v>
       </c>
@@ -9170,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" hidden="1">
       <c r="A193" s="9">
         <v>42756</v>
       </c>
@@ -9200,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" hidden="1">
       <c r="A194" s="9">
         <v>42757</v>
       </c>
@@ -9230,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" hidden="1">
       <c r="A195" s="9">
         <v>42758</v>
       </c>
@@ -9278,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" hidden="1">
       <c r="A196" s="9">
         <v>42759</v>
       </c>
@@ -9326,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" hidden="1">
       <c r="A197" s="9">
         <v>42760</v>
       </c>
@@ -9360,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" hidden="1">
       <c r="A198" s="9">
         <v>42761</v>
       </c>
@@ -9394,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" hidden="1">
       <c r="A199" s="9">
         <v>42762</v>
       </c>
@@ -9436,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" hidden="1">
       <c r="A200" s="9">
         <v>42763</v>
       </c>
@@ -9466,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" hidden="1">
       <c r="A201" s="9">
         <v>42764</v>
       </c>
@@ -9496,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" hidden="1">
       <c r="A202" s="9">
         <v>42765</v>
       </c>
@@ -9538,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" hidden="1">
       <c r="A203" s="9">
         <v>42766</v>
       </c>
@@ -9586,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" hidden="1">
       <c r="A204" s="9">
         <v>42767</v>
       </c>
@@ -9631,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" hidden="1">
       <c r="A205" s="9">
         <v>42768</v>
       </c>
@@ -9676,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" hidden="1">
       <c r="A206" s="9">
         <v>42769</v>
       </c>
@@ -9721,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" hidden="1">
       <c r="A207" s="9">
         <v>42770</v>
       </c>
@@ -9751,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" hidden="1">
       <c r="A208" s="9">
         <v>42771</v>
       </c>
@@ -9781,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" hidden="1">
       <c r="A209" s="9">
         <v>42772</v>
       </c>
@@ -9826,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" hidden="1">
       <c r="A210" s="9">
         <v>42773</v>
       </c>
@@ -9877,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" hidden="1">
       <c r="A211" s="9">
         <v>42774</v>
       </c>
@@ -9922,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" hidden="1">
       <c r="A212" s="9">
         <v>42775</v>
       </c>
@@ -9967,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" hidden="1">
       <c r="A213" s="9">
         <v>42776</v>
       </c>
@@ -10012,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" hidden="1">
       <c r="A214" s="9">
         <v>42777</v>
       </c>
@@ -10042,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" hidden="1">
       <c r="A215" s="9">
         <v>42778</v>
       </c>
@@ -10072,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" hidden="1">
       <c r="A216" s="9">
         <v>42779</v>
       </c>
@@ -10117,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" hidden="1">
       <c r="A217" s="9">
         <v>42780</v>
       </c>
@@ -10168,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" hidden="1">
       <c r="A218" s="9">
         <v>42781</v>
       </c>
@@ -10200,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" hidden="1">
       <c r="A219" s="9">
         <v>42782</v>
       </c>
@@ -10232,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" hidden="1">
       <c r="A220" s="9">
         <v>42783</v>
       </c>
@@ -10264,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" hidden="1">
       <c r="A221" s="9">
         <v>42784</v>
       </c>
@@ -10294,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" hidden="1">
       <c r="A222" s="9">
         <v>42785</v>
       </c>
@@ -10324,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" hidden="1">
       <c r="A223" s="9">
         <v>42786</v>
       </c>
@@ -10369,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" hidden="1">
       <c r="A224" s="9">
         <v>42787</v>
       </c>
@@ -10420,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1">
       <c r="A225" s="9">
         <v>42788</v>
       </c>
@@ -10471,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1">
       <c r="A226" s="9">
         <v>42789</v>
       </c>
@@ -10516,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1">
       <c r="A227" s="9">
         <v>42790</v>
       </c>
@@ -10561,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" hidden="1">
       <c r="A228" s="9">
         <v>42791</v>
       </c>
@@ -10591,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1">
       <c r="A229" s="9">
         <v>42792</v>
       </c>
@@ -10621,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" hidden="1">
       <c r="A230" s="9">
         <v>42793</v>
       </c>
@@ -10668,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1">
       <c r="A231" s="9">
         <v>42794</v>
       </c>
@@ -10697,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1">
       <c r="A232" s="9">
         <v>42795</v>
       </c>
@@ -10729,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" hidden="1">
       <c r="A233" s="9">
         <v>42796</v>
       </c>
@@ -10774,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1">
       <c r="A234" s="9">
         <v>42797</v>
       </c>
@@ -10806,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" hidden="1">
       <c r="A235" s="9">
         <v>42798</v>
       </c>
@@ -10840,7 +10633,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1">
       <c r="A236" s="9">
         <v>42799</v>
       </c>
@@ -10874,7 +10667,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1">
       <c r="A237" s="9">
         <v>42800</v>
       </c>
@@ -10923,7 +10716,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1">
       <c r="A238" s="9">
         <v>42801</v>
       </c>
@@ -10969,7 +10762,7 @@
       </c>
       <c r="T238" s="55"/>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" hidden="1">
       <c r="A239" s="9">
         <v>42802</v>
       </c>
@@ -11015,7 +10808,7 @@
       </c>
       <c r="T239" s="55"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1">
       <c r="A240" s="9">
         <v>42803</v>
       </c>
@@ -11058,7 +10851,7 @@
       </c>
       <c r="T240" s="55"/>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" hidden="1">
       <c r="A241" s="9">
         <v>42804</v>
       </c>
@@ -11101,7 +10894,7 @@
       </c>
       <c r="T241" s="55"/>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" hidden="1">
       <c r="A242" s="9">
         <v>42805</v>
       </c>
@@ -11132,7 +10925,7 @@
       </c>
       <c r="T242" s="55"/>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" hidden="1">
       <c r="A243" s="9">
         <v>42806</v>
       </c>
@@ -11163,7 +10956,7 @@
       </c>
       <c r="T243" s="55"/>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" hidden="1">
       <c r="A244" s="9">
         <v>42807</v>
       </c>
@@ -11209,7 +11002,7 @@
       </c>
       <c r="T244" s="55"/>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" hidden="1">
       <c r="A245" s="9">
         <v>42808</v>
       </c>
@@ -11255,7 +11048,7 @@
       </c>
       <c r="T245" s="55"/>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" hidden="1">
       <c r="A246" s="9">
         <v>42809</v>
       </c>
@@ -11308,7 +11101,7 @@
       </c>
       <c r="T246" s="55"/>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" hidden="1">
       <c r="A247" s="9">
         <v>42810</v>
       </c>
@@ -11352,7 +11145,7 @@
       </c>
       <c r="T247" s="55"/>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" hidden="1">
       <c r="A248" s="9">
         <v>42811</v>
       </c>
@@ -11395,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" hidden="1">
       <c r="A249" s="9">
         <v>42812</v>
       </c>
@@ -11426,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" hidden="1">
       <c r="A250" s="9">
         <v>42813</v>
       </c>
@@ -11457,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" hidden="1">
       <c r="A251" s="9">
         <v>42814</v>
       </c>
@@ -11502,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" hidden="1">
       <c r="A252" s="9">
         <v>42815</v>
       </c>
@@ -11553,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" hidden="1">
       <c r="A253" s="9">
         <v>42816</v>
       </c>
@@ -11605,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" hidden="1">
       <c r="A254" s="9">
         <v>42817</v>
       </c>
@@ -11648,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" hidden="1">
       <c r="A255" s="9">
         <v>42818</v>
       </c>
@@ -11691,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" hidden="1">
       <c r="A256" s="9">
         <v>42819</v>
       </c>
@@ -11722,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" hidden="1">
       <c r="A257" s="9">
         <v>42820</v>
       </c>
@@ -11753,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" hidden="1">
       <c r="A258" s="9">
         <v>42821</v>
       </c>
@@ -11798,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" hidden="1">
       <c r="A259" s="9">
         <v>42822</v>
       </c>
@@ -11849,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" hidden="1">
       <c r="A260" s="9">
         <v>42823</v>
       </c>
@@ -11901,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" hidden="1">
       <c r="A261" s="9">
         <v>42824</v>
       </c>
@@ -11944,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" hidden="1">
       <c r="A262" s="9">
         <v>42825</v>
       </c>
@@ -11987,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" hidden="1">
       <c r="A263" s="9">
         <v>42826</v>
       </c>
@@ -12017,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" hidden="1">
       <c r="A264" s="9">
         <v>42827</v>
       </c>
@@ -12047,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" hidden="1">
       <c r="A265" s="9">
         <v>42828</v>
       </c>
@@ -12092,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" hidden="1">
       <c r="A266" s="9">
         <v>42829</v>
       </c>
@@ -12137,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" hidden="1">
       <c r="A267" s="9">
         <v>42830</v>
       </c>
@@ -12188,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" hidden="1">
       <c r="A268" s="9">
         <v>42831</v>
       </c>
@@ -12233,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" hidden="1">
       <c r="A269" s="9">
         <v>42832</v>
       </c>
@@ -12284,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" hidden="1">
       <c r="A270" s="9">
         <v>42833</v>
       </c>
@@ -12314,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" hidden="1">
       <c r="A271" s="9">
         <v>42834</v>
       </c>
@@ -12344,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" hidden="1">
       <c r="A272" s="9">
         <v>42835</v>
       </c>
@@ -12389,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" hidden="1">
       <c r="A273" s="9">
         <v>42836</v>
       </c>
@@ -12440,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" hidden="1">
       <c r="A274" s="9">
         <v>42837</v>
       </c>
@@ -12485,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" hidden="1">
       <c r="A275" s="9">
         <v>42838</v>
       </c>
@@ -12531,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" hidden="1">
       <c r="A276" s="9">
         <v>42839</v>
       </c>
@@ -12576,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" hidden="1">
       <c r="A277" s="9">
         <v>42840</v>
       </c>
@@ -12606,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" hidden="1">
       <c r="A278" s="9">
         <v>42841</v>
       </c>
@@ -12636,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" hidden="1">
       <c r="A279" s="9">
         <v>42842</v>
       </c>
@@ -12681,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" hidden="1">
       <c r="A280" s="9">
         <v>42843</v>
       </c>
@@ -12726,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" hidden="1">
       <c r="A281" s="9">
         <v>42844</v>
       </c>
@@ -12771,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" hidden="1">
       <c r="A282" s="9">
         <v>42845</v>
       </c>
@@ -12822,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" hidden="1">
       <c r="A283" s="9">
         <v>42846</v>
       </c>
@@ -12864,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" hidden="1">
       <c r="A284" s="9">
         <v>42847</v>
       </c>
@@ -12894,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" hidden="1">
       <c r="A285" s="9">
         <v>42848</v>
       </c>
@@ -12924,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" hidden="1">
       <c r="A286" s="9">
         <v>42849</v>
       </c>
@@ -12966,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" hidden="1">
       <c r="A287" s="9">
         <v>42850</v>
       </c>
@@ -13009,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" hidden="1">
       <c r="A288" s="9">
         <v>42851</v>
       </c>
@@ -13061,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" hidden="1">
       <c r="A289" s="9">
         <v>42852</v>
       </c>
@@ -13106,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" hidden="1">
       <c r="A290" s="9">
         <v>42853</v>
       </c>
@@ -13151,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" hidden="1">
       <c r="A291" s="9">
         <v>42854</v>
       </c>
@@ -13181,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" hidden="1">
       <c r="A292" s="9">
         <v>42855</v>
       </c>
@@ -13211,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" hidden="1">
       <c r="A293" s="9">
         <v>42856</v>
       </c>
@@ -13243,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" hidden="1">
       <c r="A294" s="9">
         <v>42857</v>
       </c>
@@ -13285,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" hidden="1">
       <c r="A295" s="9">
         <v>42858</v>
       </c>
@@ -13333,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" hidden="1">
       <c r="A296" s="9">
         <v>42859</v>
       </c>
@@ -13376,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" hidden="1">
       <c r="A297" s="9">
         <v>42860</v>
       </c>
@@ -13418,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" hidden="1">
       <c r="A298" s="9">
         <v>42861</v>
       </c>
@@ -13448,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" hidden="1">
       <c r="A299" s="9">
         <v>42862</v>
       </c>
@@ -13478,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" hidden="1">
       <c r="A300" s="9">
         <v>42863</v>
       </c>
@@ -13520,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" hidden="1">
       <c r="A301" s="9">
         <v>42864</v>
       </c>
@@ -13562,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" hidden="1">
       <c r="A302" s="9">
         <v>42865</v>
       </c>
@@ -13610,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" hidden="1">
       <c r="A303" s="9">
         <v>42866</v>
       </c>
@@ -13652,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" hidden="1">
       <c r="A304" s="9">
         <v>42867</v>
       </c>
@@ -13694,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" hidden="1">
       <c r="A305" s="9">
         <v>42868</v>
       </c>
@@ -13724,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" hidden="1">
       <c r="A306" s="9">
         <v>42869</v>
       </c>
@@ -13754,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" hidden="1">
       <c r="A307" s="9">
         <v>42870</v>
       </c>
@@ -13796,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" hidden="1">
       <c r="A308" s="9">
         <v>42871</v>
       </c>
@@ -13838,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" hidden="1">
       <c r="A309" s="9">
         <v>42872</v>
       </c>
@@ -13880,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" hidden="1">
       <c r="A310" s="9">
         <v>42873</v>
       </c>
@@ -13922,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" hidden="1">
       <c r="A311" s="9">
         <v>42874</v>
       </c>
@@ -13965,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" hidden="1">
       <c r="A312" s="9">
         <v>42875</v>
       </c>
@@ -13995,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" hidden="1">
       <c r="A313" s="9">
         <v>42876</v>
       </c>
@@ -14025,7 +13818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" hidden="1">
       <c r="A314" s="9">
         <v>42877</v>
       </c>
@@ -14057,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" hidden="1">
       <c r="A315" s="9">
         <v>42878</v>
       </c>
@@ -14089,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" hidden="1">
       <c r="A316" s="9">
         <v>42879</v>
       </c>
@@ -14121,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" hidden="1">
       <c r="A317" s="9">
         <v>42880</v>
       </c>
@@ -14163,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" hidden="1">
       <c r="A318" s="9">
         <v>42881</v>
       </c>
@@ -14205,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" hidden="1">
       <c r="A319" s="9">
         <v>42882</v>
       </c>
@@ -14235,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" hidden="1">
       <c r="A320" s="9">
         <v>42883</v>
       </c>
@@ -14265,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" hidden="1">
       <c r="A321" s="9">
         <v>42884</v>
       </c>
@@ -14307,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" hidden="1">
       <c r="A322" s="9">
         <v>42885</v>
       </c>
@@ -14355,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" hidden="1">
       <c r="A323" s="9">
         <v>42886</v>
       </c>
@@ -14398,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" hidden="1">
       <c r="A324" s="9">
         <v>42887</v>
       </c>
@@ -14434,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" hidden="1">
       <c r="A325" s="9">
         <v>42888</v>
       </c>
@@ -14470,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" hidden="1">
       <c r="A326" s="9">
         <v>42889</v>
       </c>
@@ -14500,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" hidden="1">
       <c r="A327" s="9">
         <v>42890</v>
       </c>
@@ -14530,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" hidden="1">
       <c r="A328" s="9">
         <v>42891</v>
       </c>
@@ -14562,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" hidden="1">
       <c r="A329" s="9">
         <v>42892</v>
       </c>
@@ -14594,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" hidden="1">
       <c r="A330" s="9">
         <v>42893</v>
       </c>
@@ -14626,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" hidden="1">
       <c r="A331" s="9">
         <v>42894</v>
       </c>
@@ -14662,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" hidden="1">
       <c r="A332" s="9">
         <v>42895</v>
       </c>
@@ -14698,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" hidden="1">
       <c r="A333" s="9">
         <v>42896</v>
       </c>
@@ -14728,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" hidden="1">
       <c r="A334" s="9">
         <v>42897</v>
       </c>
@@ -14758,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" hidden="1">
       <c r="A335" s="9">
         <v>42898</v>
       </c>
@@ -14790,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" hidden="1">
       <c r="A336" s="9">
         <v>42899</v>
       </c>
@@ -14822,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" hidden="1">
       <c r="A337" s="9">
         <v>42900</v>
       </c>
@@ -14854,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" hidden="1">
       <c r="A338" s="9">
         <v>42901</v>
       </c>
@@ -14890,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" hidden="1">
       <c r="A339" s="9">
         <v>42902</v>
       </c>
@@ -14926,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" hidden="1">
       <c r="A340" s="9">
         <v>42903</v>
       </c>
@@ -14956,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" hidden="1">
       <c r="A341" s="9">
         <v>42904</v>
       </c>
@@ -14986,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" hidden="1">
       <c r="A342" s="9">
         <v>42905</v>
       </c>
@@ -15022,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" hidden="1">
       <c r="A343" s="9">
         <v>42906</v>
       </c>
@@ -15056,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" hidden="1">
       <c r="A344" s="9">
         <v>42907</v>
       </c>
@@ -15090,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" hidden="1">
       <c r="A345" s="9">
         <v>42908</v>
       </c>
@@ -15123,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" ht="27.6" hidden="1">
       <c r="A346" s="9">
         <v>42909</v>
       </c>
@@ -15158,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" hidden="1">
       <c r="A347" s="9">
         <v>42910</v>
       </c>
@@ -15188,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" hidden="1">
       <c r="A348" s="9">
         <v>42911</v>
       </c>
@@ -15218,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" ht="27.6" hidden="1">
       <c r="A349" s="9">
         <v>42912</v>
       </c>
@@ -15253,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" hidden="1">
       <c r="A350" s="9">
         <v>42913</v>
       </c>
@@ -15285,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" hidden="1">
       <c r="A351" s="9">
         <v>42914</v>
       </c>
@@ -15317,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" hidden="1">
       <c r="A352" s="9">
         <v>42915</v>
       </c>
@@ -15351,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" hidden="1">
       <c r="A353" s="9">
         <v>42916</v>
       </c>
@@ -15387,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" hidden="1">
       <c r="A354" s="9">
         <v>42917</v>
       </c>
@@ -15417,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" hidden="1">
       <c r="A355" s="9">
         <v>42918</v>
       </c>
@@ -15447,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19">
       <c r="A356" s="9">
         <v>42919</v>
       </c>
@@ -15489,7 +15282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19">
       <c r="A357" s="9">
         <v>42920</v>
       </c>
@@ -15525,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" ht="27.6">
       <c r="A358" s="9">
         <v>42921</v>
       </c>
@@ -15570,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19">
       <c r="A359" s="9">
         <v>42922</v>
       </c>
@@ -15606,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19">
       <c r="A360" s="9">
         <v>42923</v>
       </c>
@@ -15642,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" hidden="1">
       <c r="A361" s="9">
         <v>42924</v>
       </c>
@@ -15672,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" hidden="1">
       <c r="A362" s="9">
         <v>42925</v>
       </c>
@@ -15702,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19">
       <c r="A363" s="9">
         <v>42926</v>
       </c>
@@ -15744,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19">
       <c r="A364" s="9">
         <v>42927</v>
       </c>
@@ -15780,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19">
       <c r="A365" s="9">
         <v>42928</v>
       </c>
@@ -15816,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19">
       <c r="A366" s="9">
         <v>42929</v>
       </c>
@@ -15858,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19">
       <c r="A367" s="9">
         <v>42930</v>
       </c>
@@ -15894,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" hidden="1">
       <c r="A368" s="9">
         <v>42931</v>
       </c>
@@ -15924,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" hidden="1">
       <c r="A369" s="9">
         <v>42932</v>
       </c>
@@ -15954,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" hidden="1">
       <c r="A370" s="9">
         <v>42933</v>
       </c>
@@ -15990,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19">
       <c r="A371" s="9">
         <v>42934</v>
       </c>
@@ -16026,7 +15819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19">
       <c r="A372" s="9">
         <v>42935</v>
       </c>
@@ -16062,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" ht="27.6">
       <c r="A373" s="9">
         <v>42936</v>
       </c>
@@ -16108,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:19">
       <c r="A374" s="9">
         <v>42937</v>
       </c>
@@ -16144,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" hidden="1">
       <c r="A375" s="9">
         <v>42938</v>
       </c>
@@ -16174,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" hidden="1">
       <c r="A376" s="9">
         <v>42939</v>
       </c>
@@ -16204,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19">
       <c r="A377" s="9">
         <v>42940</v>
       </c>
@@ -16243,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:19">
       <c r="A378" s="9">
         <v>42941</v>
       </c>
@@ -16279,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19">
       <c r="A379" s="9">
         <v>42942</v>
       </c>
@@ -16315,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19">
       <c r="A380" s="9">
         <v>42943</v>
       </c>
@@ -16351,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19">
       <c r="A381" s="9">
         <v>42944</v>
       </c>
@@ -16387,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" hidden="1">
       <c r="A382" s="9">
         <v>42945</v>
       </c>
@@ -16417,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" hidden="1">
       <c r="A383" s="9">
         <v>42946</v>
       </c>
@@ -16447,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" ht="27.6">
       <c r="A384" s="9">
         <v>42947</v>
       </c>
@@ -16492,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" hidden="1">
       <c r="A385" s="9">
         <v>42948</v>
       </c>
@@ -16522,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" hidden="1">
       <c r="A386" s="9">
         <v>42949</v>
       </c>
@@ -16552,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" hidden="1">
       <c r="A387" s="9">
         <v>42950</v>
       </c>
@@ -16582,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" hidden="1">
       <c r="A388" s="9">
         <v>42951</v>
       </c>
@@ -16612,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" hidden="1">
       <c r="A389" s="9">
         <v>42952</v>
       </c>
@@ -16642,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" hidden="1">
       <c r="A390" s="9">
         <v>42953</v>
       </c>
@@ -16672,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" hidden="1">
       <c r="A391" s="9">
         <v>42954</v>
       </c>
@@ -16702,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" hidden="1">
       <c r="A392" s="9">
         <v>42955</v>
       </c>
@@ -16732,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" hidden="1">
       <c r="A393" s="9">
         <v>42956</v>
       </c>
@@ -16762,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" hidden="1">
       <c r="A394" s="9">
         <v>42957</v>
       </c>
@@ -16792,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" hidden="1">
       <c r="A395" s="9">
         <v>42958</v>
       </c>
@@ -16822,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" hidden="1">
       <c r="A396" s="9">
         <v>42959</v>
       </c>
@@ -16852,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" hidden="1">
       <c r="A397" s="9">
         <v>42960</v>
       </c>
@@ -16882,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" hidden="1">
       <c r="A398" s="9">
         <v>42961</v>
       </c>
@@ -16912,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" hidden="1">
       <c r="A399" s="9">
         <v>42962</v>
       </c>
@@ -16942,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" hidden="1">
       <c r="A400" s="9">
         <v>42963</v>
       </c>
@@ -16972,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" hidden="1">
       <c r="A401" s="9">
         <v>42964</v>
       </c>
@@ -17002,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" hidden="1">
       <c r="A402" s="9">
         <v>42965</v>
       </c>
@@ -17032,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" hidden="1">
       <c r="A403" s="9">
         <v>42966</v>
       </c>
@@ -17062,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" hidden="1">
       <c r="A404" s="9">
         <v>42967</v>
       </c>
@@ -17092,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" hidden="1">
       <c r="A405" s="9">
         <v>42968</v>
       </c>
@@ -17122,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" hidden="1">
       <c r="A406" s="9">
         <v>42969</v>
       </c>
@@ -17152,7 +16945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" hidden="1">
       <c r="A407" s="9">
         <v>42970</v>
       </c>
@@ -17182,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" hidden="1">
       <c r="A408" s="9">
         <v>42971</v>
       </c>
@@ -17212,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" hidden="1">
       <c r="A409" s="9">
         <v>42972</v>
       </c>
@@ -17242,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" hidden="1">
       <c r="A410" s="9">
         <v>42973</v>
       </c>
@@ -17272,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" hidden="1">
       <c r="A411" s="9">
         <v>42974</v>
       </c>
@@ -17302,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:19" hidden="1">
       <c r="A412" s="9">
         <v>42975</v>
       </c>
@@ -17332,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" hidden="1">
       <c r="A413" s="9">
         <v>42976</v>
       </c>
@@ -17362,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" hidden="1">
       <c r="A414" s="9">
         <v>42977</v>
       </c>
@@ -17392,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" hidden="1">
       <c r="A415" s="9">
         <v>42978</v>
       </c>
@@ -17422,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" hidden="1">
       <c r="A416" s="9">
         <v>42979</v>
       </c>
@@ -17452,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" hidden="1">
       <c r="A417" s="9">
         <v>42980</v>
       </c>
@@ -17482,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" hidden="1">
       <c r="A418" s="9">
         <v>42981</v>
       </c>
@@ -17512,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" hidden="1">
       <c r="A419" s="9">
         <v>42982</v>
       </c>
@@ -17542,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" hidden="1">
       <c r="A420" s="9">
         <v>42983</v>
       </c>
@@ -17572,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" hidden="1">
       <c r="A421" s="9">
         <v>42984</v>
       </c>
@@ -17602,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" hidden="1">
       <c r="A422" s="9">
         <v>42985</v>
       </c>
@@ -17632,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" hidden="1">
       <c r="A423" s="9">
         <v>42986</v>
       </c>
@@ -17662,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" hidden="1">
       <c r="A424" s="9">
         <v>42987</v>
       </c>
@@ -17692,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" hidden="1">
       <c r="A425" s="9">
         <v>42988</v>
       </c>
@@ -17722,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" hidden="1">
       <c r="A426" s="9">
         <v>42989</v>
       </c>
@@ -17752,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" hidden="1">
       <c r="A427" s="9">
         <v>42990</v>
       </c>
@@ -17782,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" hidden="1">
       <c r="A428" s="9">
         <v>42991</v>
       </c>
@@ -17812,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" hidden="1">
       <c r="A429" s="9">
         <v>42992</v>
       </c>
@@ -17842,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" hidden="1">
       <c r="A430" s="9">
         <v>42993</v>
       </c>
@@ -17872,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" hidden="1">
       <c r="A431" s="9">
         <v>42994</v>
       </c>
@@ -17902,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" hidden="1">
       <c r="A432" s="9">
         <v>42995</v>
       </c>
@@ -17932,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" hidden="1">
       <c r="A433" s="9">
         <v>42996</v>
       </c>
@@ -17962,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" hidden="1">
       <c r="A434" s="9">
         <v>42997</v>
       </c>
@@ -17992,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" hidden="1">
       <c r="A435" s="9">
         <v>42998</v>
       </c>
@@ -18022,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" hidden="1">
       <c r="A436" s="9">
         <v>42999</v>
       </c>
@@ -18052,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" hidden="1">
       <c r="A437" s="9">
         <v>43000</v>
       </c>
@@ -18082,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" hidden="1">
       <c r="A438" s="9">
         <v>43001</v>
       </c>
@@ -18112,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" hidden="1">
       <c r="A439" s="9">
         <v>43002</v>
       </c>
@@ -18142,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" hidden="1">
       <c r="A440" s="9">
         <v>43003</v>
       </c>
@@ -18172,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" hidden="1">
       <c r="A441" s="9">
         <v>43004</v>
       </c>
@@ -18202,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" hidden="1">
       <c r="A442" s="9">
         <v>43005</v>
       </c>
@@ -18232,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" hidden="1">
       <c r="A443" s="9">
         <v>43006</v>
       </c>
@@ -18262,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" hidden="1">
       <c r="A444" s="9">
         <v>43007</v>
       </c>
@@ -18292,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" hidden="1">
       <c r="A445" s="9">
         <v>43008</v>
       </c>
@@ -18322,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" hidden="1">
       <c r="A446" s="9">
         <v>43009</v>
       </c>
@@ -18352,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" hidden="1">
       <c r="A447" s="9">
         <v>43010</v>
       </c>
@@ -18382,167 +18175,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19">
       <c r="Q448" s="11"/>
     </row>
-    <row r="449" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="17:17">
       <c r="Q449" s="11"/>
     </row>
-    <row r="450" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="17:17">
       <c r="Q450" s="11"/>
     </row>
-    <row r="451" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="17:17">
       <c r="Q451" s="11"/>
     </row>
-    <row r="452" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="17:17">
       <c r="Q452" s="11"/>
     </row>
-    <row r="453" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="17:17">
       <c r="Q453" s="11"/>
     </row>
-    <row r="454" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="17:17">
       <c r="Q454" s="11"/>
     </row>
-    <row r="455" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="17:17">
       <c r="Q455" s="11"/>
     </row>
-    <row r="456" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="17:17">
       <c r="Q456" s="11"/>
     </row>
-    <row r="457" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="17:17">
       <c r="Q457" s="11"/>
     </row>
-    <row r="458" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="17:17">
       <c r="Q458" s="11"/>
     </row>
-    <row r="459" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="17:17">
       <c r="Q459" s="11"/>
     </row>
-    <row r="460" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="17:17">
       <c r="Q460" s="11"/>
     </row>
-    <row r="461" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="17:17">
       <c r="Q461" s="11"/>
     </row>
-    <row r="462" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="17:17">
       <c r="Q462" s="11"/>
     </row>
-    <row r="463" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="17:17">
       <c r="Q463" s="11"/>
     </row>
-    <row r="464" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="17:17">
       <c r="Q464" s="11"/>
     </row>
-    <row r="465" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="17:17">
       <c r="Q465" s="11"/>
     </row>
-    <row r="466" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="17:17">
       <c r="Q466" s="11"/>
     </row>
-    <row r="467" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="17:17">
       <c r="Q467" s="11"/>
     </row>
-    <row r="468" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="17:17">
       <c r="Q468" s="11"/>
     </row>
-    <row r="469" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="17:17">
       <c r="Q469" s="11"/>
     </row>
-    <row r="470" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="17:17">
       <c r="Q470" s="11"/>
     </row>
-    <row r="471" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="17:17">
       <c r="Q471" s="11"/>
     </row>
-    <row r="472" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="17:17">
       <c r="Q472" s="11"/>
     </row>
-    <row r="473" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="17:17">
       <c r="Q473" s="11"/>
     </row>
-    <row r="474" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="17:17">
       <c r="Q474" s="11"/>
     </row>
-    <row r="475" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="17:17">
       <c r="Q475" s="11"/>
     </row>
-    <row r="476" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="17:17">
       <c r="Q476" s="11"/>
     </row>
-    <row r="477" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="17:17">
       <c r="Q477" s="11"/>
     </row>
-    <row r="478" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="17:17">
       <c r="Q478" s="11"/>
     </row>
-    <row r="479" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="17:17">
       <c r="Q479" s="11"/>
     </row>
-    <row r="480" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="17:17">
       <c r="Q480" s="11"/>
     </row>
-    <row r="481" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="17:17">
       <c r="Q481" s="11"/>
     </row>
-    <row r="482" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="17:17">
       <c r="Q482" s="11"/>
     </row>
-    <row r="483" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="17:17">
       <c r="Q483" s="11"/>
     </row>
-    <row r="484" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="17:17">
       <c r="Q484" s="11"/>
     </row>
-    <row r="485" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="17:17">
       <c r="Q485" s="11"/>
     </row>
-    <row r="486" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="17:17">
       <c r="Q486" s="11"/>
     </row>
-    <row r="487" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="17:17">
       <c r="Q487" s="11"/>
     </row>
-    <row r="488" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="17:17">
       <c r="Q488" s="11"/>
     </row>
-    <row r="489" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="17:17">
       <c r="Q489" s="11"/>
     </row>
-    <row r="490" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="17:17">
       <c r="Q490" s="11"/>
     </row>
-    <row r="491" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="17:17">
       <c r="Q491" s="11"/>
     </row>
-    <row r="492" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="17:17">
       <c r="Q492" s="11"/>
     </row>
-    <row r="493" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="17:17">
       <c r="Q493" s="11"/>
     </row>
-    <row r="494" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="17:17">
       <c r="Q494" s="11"/>
     </row>
-    <row r="495" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="17:17">
       <c r="Q495" s="11"/>
     </row>
-    <row r="496" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="17:17">
       <c r="Q496" s="11"/>
     </row>
-    <row r="497" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="17:17">
       <c r="Q497" s="11"/>
     </row>
-    <row r="498" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="17:17">
       <c r="Q498" s="11"/>
     </row>
-    <row r="499" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="17:17">
       <c r="Q499" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T447">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2017" month="6" dateTimeGrouping="month"/>
         <dateGroupItem year="2017" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
@@ -18560,18 +18352,18 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="K1:L184 I1:J239 K186:L259 F310:I310 H336:I337 H328:I330 H349:I352 H343:I346 K261:L1048576 A1:H1048576 I242:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$S1=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>IF(OR($B1=7,$B1=1,$E1="Leave",$E1="Holiday"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K260:L260">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$S260=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(OR($B260=7,$B260=1,$E260="Leave",$E260="Holiday"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18581,14 +18373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -18602,7 +18394,7 @@
     <col min="10" max="10" width="15.5546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="42" customFormat="1">
       <c r="A1" s="57" t="s">
         <v>19</v>
       </c>
@@ -18634,7 +18426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="57" t="s">
         <v>172</v>
       </c>
@@ -18669,7 +18461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="57" t="s">
         <v>186</v>
       </c>
@@ -18705,7 +18497,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="57" t="s">
         <v>191</v>
       </c>
@@ -18740,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="57" t="s">
         <v>193</v>
       </c>
@@ -18775,7 +18567,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="57" t="s">
         <v>195</v>
       </c>
@@ -18806,7 +18598,45 @@
       <c r="I6" s="62">
         <v>59.5</v>
       </c>
-      <c r="J6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2">
+      <c r="A7" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="86">
+        <v>20</v>
+      </c>
+      <c r="C7" s="86">
+        <f>B7*8.5</f>
+        <v>170</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="61">
+        <f>D7*C7</f>
+        <v>85</v>
+      </c>
+      <c r="G7" s="62">
+        <f>E7*C7</f>
+        <v>85</v>
+      </c>
+      <c r="H7" s="59">
+        <f>85-17</f>
+        <v>68</v>
+      </c>
+      <c r="I7" s="62">
+        <v>85</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18815,7 +18645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -18823,7 +18653,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="47" customWidth="1"/>
@@ -18839,7 +18669,7 @@
     <col min="12" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="54">
       <c r="A1" s="43" t="s">
         <v>144</v>
       </c>
@@ -18874,7 +18704,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="51" customFormat="1" ht="15">
       <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
@@ -18901,7 +18731,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" hidden="1">
       <c r="A3" s="45" t="s">
         <v>165</v>
       </c>
@@ -18926,7 +18756,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="43.2">
       <c r="A4" s="46" t="s">
         <v>72</v>
       </c>
@@ -18949,7 +18779,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="51" customFormat="1">
       <c r="A5" s="44" t="s">
         <v>22</v>
       </c>
@@ -18972,7 +18802,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="51" customFormat="1">
       <c r="A6" s="44" t="s">
         <v>167</v>
       </c>
@@ -18997,7 +18827,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="45" t="s">
         <v>169</v>
       </c>
@@ -19029,12 +18859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -19049,7 +18879,7 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="32" t="s">
         <v>144</v>
       </c>
@@ -19084,7 +18914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -19121,7 +18951,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="33" t="s">
         <v>71</v>
       </c>
@@ -19156,7 +18986,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="18" t="s">
         <v>72</v>
       </c>
@@ -19189,7 +19019,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
@@ -19222,7 +19052,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="19" t="s">
         <v>73</v>
       </c>
@@ -19255,7 +19085,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>154</v>
       </c>
@@ -19300,26 +19130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
@@ -19330,7 +19160,7 @@
     <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="65" t="s">
         <v>29</v>
       </c>
@@ -19346,7 +19176,7 @@
       </c>
       <c r="G3" s="65"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="65"/>
       <c r="C4" s="67"/>
       <c r="D4" s="1" t="s">
@@ -19362,7 +19192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -19382,7 +19212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -19402,7 +19232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -19422,7 +19252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -19442,7 +19272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -19462,7 +19292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -19482,7 +19312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -19502,7 +19332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -19522,7 +19352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -19542,7 +19372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -19562,7 +19392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -19582,7 +19412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -19602,7 +19432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -19622,7 +19452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" s="2">
         <v>14</v>
       </c>
@@ -19642,7 +19472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -19662,7 +19492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="2">
         <v>16</v>
       </c>
@@ -19682,7 +19512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -19702,7 +19532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" s="2">
         <v>18</v>
       </c>
@@ -19722,7 +19552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
@@ -19733,7 +19563,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="28.8">
       <c r="B27" s="7" t="s">
         <v>64</v>
       </c>
@@ -19756,7 +19586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="28.8">
       <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
@@ -19771,7 +19601,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="28.8">
       <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
@@ -19786,7 +19616,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="28.8">
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
@@ -19799,7 +19629,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="28.8">
       <c r="B31" s="7" t="s">
         <v>69</v>
       </c>
@@ -19826,7 +19656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W55"/>
   <sheetViews>
@@ -19834,95 +19664,95 @@
       <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
+      <c r="A1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-    </row>
-    <row r="4" spans="1:23" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.2" thickBot="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="22" t="s">
         <v>89</v>
       </c>
@@ -19950,10 +19780,10 @@
       <c r="L4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="79"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="22" t="s">
         <v>98</v>
       </c>
@@ -19972,18 +19802,18 @@
       <c r="T4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="79"/>
+      <c r="V4" s="82"/>
       <c r="W4" s="23"/>
     </row>
-    <row r="5" spans="1:23" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15" hidden="1" thickBot="1">
       <c r="A5" s="21"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -19993,8 +19823,8 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="82"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -20003,18 +19833,18 @@
       <c r="T5" s="25">
         <v>325500</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="79"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="21"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -20024,8 +19854,8 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -20036,19 +19866,19 @@
       <c r="T6" s="27">
         <v>29500</v>
       </c>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="V6" s="84"/>
+      <c r="V6" s="74"/>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="21"/>
-      <c r="B7" s="71">
+      <c r="B7" s="75">
         <v>6008518500</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="28" t="s">
         <v>109</v>
       </c>
@@ -20071,10 +19901,10 @@
         <v>110</v>
       </c>
       <c r="L7" s="21"/>
-      <c r="M7" s="74">
+      <c r="M7" s="78">
         <v>9081250</v>
       </c>
-      <c r="N7" s="75"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21" t="s">
@@ -20089,19 +19919,19 @@
       <c r="T7" s="27">
         <v>2000</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="U7" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="V7" s="75"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="23"/>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="71">
+      <c r="B8" s="75">
         <v>6008518500</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="28" t="s">
         <v>109</v>
       </c>
@@ -20126,10 +19956,10 @@
       <c r="L8" s="28">
         <v>9629</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="75">
         <v>10</v>
       </c>
-      <c r="N8" s="73"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28" t="s">
@@ -20144,19 +19974,19 @@
       <c r="T8" s="30">
         <v>2000</v>
       </c>
-      <c r="U8" s="71" t="s">
+      <c r="U8" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="V8" s="73"/>
+      <c r="V8" s="77"/>
       <c r="W8" s="23"/>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="71">
+      <c r="B9" s="75">
         <v>6008518500</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="28" t="s">
         <v>109</v>
       </c>
@@ -20181,10 +20011,10 @@
       <c r="L9" s="21">
         <v>9629</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="78">
         <v>70</v>
       </c>
-      <c r="N9" s="75"/>
+      <c r="N9" s="79"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21" t="s">
@@ -20199,19 +20029,19 @@
       <c r="T9" s="27">
         <v>8500</v>
       </c>
-      <c r="U9" s="74" t="s">
+      <c r="U9" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="V9" s="75"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="21"/>
-      <c r="B10" s="71">
+      <c r="B10" s="75">
         <v>6008518604</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="28" t="s">
         <v>109</v>
       </c>
@@ -20234,8 +20064,8 @@
         <v>110</v>
       </c>
       <c r="L10" s="28"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="73"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="28">
         <v>6072122</v>
       </c>
@@ -20254,18 +20084,18 @@
       <c r="T10" s="30">
         <v>17000</v>
       </c>
-      <c r="U10" s="71" t="s">
+      <c r="U10" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="73"/>
+      <c r="V10" s="77"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -20275,8 +20105,8 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -20287,19 +20117,19 @@
       <c r="T11" s="27">
         <v>35000</v>
       </c>
-      <c r="U11" s="74" t="s">
+      <c r="U11" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="V11" s="75"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="23"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="21"/>
-      <c r="B12" s="71">
+      <c r="B12" s="75">
         <v>6008522360</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="28" t="s">
         <v>109</v>
       </c>
@@ -20322,8 +20152,8 @@
         <v>110</v>
       </c>
       <c r="L12" s="21"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="75"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
       <c r="O12" s="21">
         <v>6072122</v>
       </c>
@@ -20342,19 +20172,19 @@
       <c r="T12" s="27">
         <v>17000</v>
       </c>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="V12" s="75"/>
+      <c r="V12" s="79"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <v>6008522374</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="28" t="s">
         <v>109</v>
       </c>
@@ -20377,10 +20207,10 @@
         <v>110</v>
       </c>
       <c r="L13" s="28"/>
-      <c r="M13" s="71">
+      <c r="M13" s="75">
         <v>9081250</v>
       </c>
-      <c r="N13" s="73"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28" t="s">
@@ -20395,19 +20225,19 @@
       <c r="T13" s="30">
         <v>2000</v>
       </c>
-      <c r="U13" s="71" t="s">
+      <c r="U13" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V13" s="73"/>
+      <c r="V13" s="77"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="71">
+      <c r="B14" s="75">
         <v>6008522374</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="28" t="s">
         <v>109</v>
       </c>
@@ -20432,10 +20262,10 @@
       <c r="L14" s="21">
         <v>9629</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="78">
         <v>10</v>
       </c>
-      <c r="N14" s="75"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21" t="s">
@@ -20450,19 +20280,19 @@
       <c r="T14" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="U14" s="74" t="s">
+      <c r="U14" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="V14" s="75"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="23"/>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <v>6008522374</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="28" t="s">
         <v>109</v>
       </c>
@@ -20487,10 +20317,10 @@
       <c r="L15" s="28">
         <v>9629</v>
       </c>
-      <c r="M15" s="71">
+      <c r="M15" s="75">
         <v>10</v>
       </c>
-      <c r="N15" s="73"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28" t="s">
@@ -20505,19 +20335,19 @@
       <c r="T15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="V15" s="73"/>
+      <c r="V15" s="77"/>
       <c r="W15" s="23"/>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="71">
+      <c r="B16" s="75">
         <v>6008522374</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="28" t="s">
         <v>109</v>
       </c>
@@ -20542,10 +20372,10 @@
       <c r="L16" s="21">
         <v>9629</v>
       </c>
-      <c r="M16" s="74">
+      <c r="M16" s="78">
         <v>10</v>
       </c>
-      <c r="N16" s="75"/>
+      <c r="N16" s="79"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21" t="s">
@@ -20560,18 +20390,18 @@
       <c r="T16" s="27">
         <v>15000</v>
       </c>
-      <c r="U16" s="74" t="s">
+      <c r="U16" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="V16" s="75"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="23"/>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -20581,8 +20411,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
@@ -20593,19 +20423,19 @@
       <c r="T17" s="27">
         <v>17000</v>
       </c>
-      <c r="U17" s="74" t="s">
+      <c r="U17" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="V17" s="75"/>
+      <c r="V17" s="79"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="71">
+      <c r="B18" s="75">
         <v>6008524034</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="28" t="s">
         <v>109</v>
       </c>
@@ -20628,10 +20458,10 @@
         <v>110</v>
       </c>
       <c r="L18" s="28"/>
-      <c r="M18" s="71">
+      <c r="M18" s="75">
         <v>9081250</v>
       </c>
-      <c r="N18" s="73"/>
+      <c r="N18" s="77"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28" t="s">
@@ -20646,19 +20476,19 @@
       <c r="T18" s="30">
         <v>2000</v>
       </c>
-      <c r="U18" s="71" t="s">
+      <c r="U18" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V18" s="73"/>
+      <c r="V18" s="77"/>
       <c r="W18" s="23"/>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <v>6008524034</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="28" t="s">
         <v>109</v>
       </c>
@@ -20683,10 +20513,10 @@
       <c r="L19" s="21">
         <v>9629</v>
       </c>
-      <c r="M19" s="74">
+      <c r="M19" s="78">
         <v>10</v>
       </c>
-      <c r="N19" s="75"/>
+      <c r="N19" s="79"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21" t="s">
@@ -20701,19 +20531,19 @@
       <c r="T19" s="27">
         <v>8500</v>
       </c>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="V19" s="75"/>
+      <c r="V19" s="79"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="21"/>
-      <c r="B20" s="71">
+      <c r="B20" s="75">
         <v>6008524035</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="28" t="s">
         <v>109</v>
       </c>
@@ -20736,8 +20566,8 @@
         <v>110</v>
       </c>
       <c r="L20" s="28"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="73"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="28">
         <v>6072122</v>
       </c>
@@ -20756,18 +20586,18 @@
       <c r="T20" s="30">
         <v>6500</v>
       </c>
-      <c r="U20" s="71" t="s">
+      <c r="U20" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="V20" s="73"/>
+      <c r="V20" s="77"/>
       <c r="W20" s="23"/>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -20777,8 +20607,8 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="75"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
@@ -20789,19 +20619,19 @@
       <c r="T21" s="27">
         <v>54500</v>
       </c>
-      <c r="U21" s="74" t="s">
+      <c r="U21" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="75"/>
+      <c r="V21" s="79"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="21"/>
-      <c r="B22" s="71">
+      <c r="B22" s="75">
         <v>6008525157</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="28" t="s">
         <v>109</v>
       </c>
@@ -20824,8 +20654,8 @@
         <v>110</v>
       </c>
       <c r="L22" s="21"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
       <c r="O22" s="21">
         <v>6072122</v>
       </c>
@@ -20844,19 +20674,19 @@
       <c r="T22" s="27">
         <v>19000</v>
       </c>
-      <c r="U22" s="74" t="s">
+      <c r="U22" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="V22" s="75"/>
+      <c r="V22" s="79"/>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="71">
+      <c r="B23" s="75">
         <v>6008525158</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="28" t="s">
         <v>109</v>
       </c>
@@ -20879,10 +20709,10 @@
         <v>110</v>
       </c>
       <c r="L23" s="28"/>
-      <c r="M23" s="71">
+      <c r="M23" s="75">
         <v>9081250</v>
       </c>
-      <c r="N23" s="73"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="28" t="s">
@@ -20897,19 +20727,19 @@
       <c r="T23" s="30">
         <v>2000</v>
       </c>
-      <c r="U23" s="71" t="s">
+      <c r="U23" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V23" s="73"/>
+      <c r="V23" s="77"/>
       <c r="W23" s="23"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="71">
+      <c r="B24" s="75">
         <v>6008525158</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="28" t="s">
         <v>109</v>
       </c>
@@ -20934,10 +20764,10 @@
       <c r="L24" s="21">
         <v>9629</v>
       </c>
-      <c r="M24" s="74">
+      <c r="M24" s="78">
         <v>10</v>
       </c>
-      <c r="N24" s="75"/>
+      <c r="N24" s="79"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21" t="s">
@@ -20952,19 +20782,19 @@
       <c r="T24" s="27">
         <v>20500</v>
       </c>
-      <c r="U24" s="74" t="s">
+      <c r="U24" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="V24" s="75"/>
+      <c r="V24" s="79"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="71">
+      <c r="B25" s="75">
         <v>6008525158</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="28" t="s">
         <v>109</v>
       </c>
@@ -20989,10 +20819,10 @@
       <c r="L25" s="28">
         <v>9629</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="75">
         <v>10</v>
       </c>
-      <c r="N25" s="73"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28" t="s">
@@ -21007,19 +20837,19 @@
       <c r="T25" s="30">
         <v>1000</v>
       </c>
-      <c r="U25" s="71" t="s">
+      <c r="U25" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="V25" s="73"/>
+      <c r="V25" s="77"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="21"/>
-      <c r="B26" s="71">
+      <c r="B26" s="75">
         <v>6008525159</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="28" t="s">
         <v>109</v>
       </c>
@@ -21042,8 +20872,8 @@
         <v>110</v>
       </c>
       <c r="L26" s="21"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
       <c r="O26" s="21">
         <v>6072122</v>
       </c>
@@ -21062,19 +20892,19 @@
       <c r="T26" s="27">
         <v>4000</v>
       </c>
-      <c r="U26" s="74" t="s">
+      <c r="U26" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="V26" s="75"/>
+      <c r="V26" s="79"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="71">
+      <c r="B27" s="75">
         <v>6008525164</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="28" t="s">
         <v>109</v>
       </c>
@@ -21097,8 +20927,8 @@
         <v>110</v>
       </c>
       <c r="L27" s="28"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="73"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="77"/>
       <c r="O27" s="28">
         <v>6073376</v>
       </c>
@@ -21117,18 +20947,18 @@
       <c r="T27" s="30">
         <v>8000</v>
       </c>
-      <c r="U27" s="71" t="s">
+      <c r="U27" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="V27" s="73"/>
+      <c r="V27" s="77"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -21138,8 +20968,8 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -21150,19 +20980,19 @@
       <c r="T28" s="27">
         <v>25500</v>
       </c>
-      <c r="U28" s="74" t="s">
+      <c r="U28" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V28" s="75"/>
+      <c r="V28" s="79"/>
       <c r="W28" s="23"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="21"/>
-      <c r="B29" s="71">
+      <c r="B29" s="75">
         <v>6008532583</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="28" t="s">
         <v>109</v>
       </c>
@@ -21185,8 +21015,8 @@
         <v>110</v>
       </c>
       <c r="L29" s="21"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="79"/>
       <c r="O29" s="21">
         <v>6072122</v>
       </c>
@@ -21205,19 +21035,19 @@
       <c r="T29" s="27">
         <v>8500</v>
       </c>
-      <c r="U29" s="74" t="s">
+      <c r="U29" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="V29" s="75"/>
+      <c r="V29" s="79"/>
       <c r="W29" s="23"/>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="71">
+      <c r="B30" s="75">
         <v>6008532584</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="28" t="s">
         <v>109</v>
       </c>
@@ -21240,8 +21070,8 @@
         <v>110</v>
       </c>
       <c r="L30" s="28"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="73"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="77"/>
       <c r="O30" s="28">
         <v>6073385</v>
       </c>
@@ -21260,19 +21090,19 @@
       <c r="T30" s="30">
         <v>14000</v>
       </c>
-      <c r="U30" s="71" t="s">
+      <c r="U30" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="V30" s="73"/>
+      <c r="V30" s="77"/>
       <c r="W30" s="23"/>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="71">
+      <c r="B31" s="75">
         <v>6008532586</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="28" t="s">
         <v>109</v>
       </c>
@@ -21295,10 +21125,10 @@
         <v>110</v>
       </c>
       <c r="L31" s="21"/>
-      <c r="M31" s="74">
+      <c r="M31" s="78">
         <v>9081250</v>
       </c>
-      <c r="N31" s="75"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21" t="s">
@@ -21313,19 +21143,19 @@
       <c r="T31" s="27">
         <v>2000</v>
       </c>
-      <c r="U31" s="74" t="s">
+      <c r="U31" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="V31" s="75"/>
+      <c r="V31" s="79"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="71">
+      <c r="B32" s="75">
         <v>6008532586</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="28" t="s">
         <v>109</v>
       </c>
@@ -21350,10 +21180,10 @@
       <c r="L32" s="28">
         <v>9629</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="75">
         <v>10</v>
       </c>
-      <c r="N32" s="73"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28" t="s">
@@ -21368,18 +21198,18 @@
       <c r="T32" s="30">
         <v>1000</v>
       </c>
-      <c r="U32" s="71" t="s">
+      <c r="U32" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="V32" s="73"/>
+      <c r="V32" s="77"/>
       <c r="W32" s="23"/>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -21389,8 +21219,8 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="79"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -21401,19 +21231,19 @@
       <c r="T33" s="27">
         <v>42500</v>
       </c>
-      <c r="U33" s="74" t="s">
+      <c r="U33" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="V33" s="75"/>
+      <c r="V33" s="79"/>
       <c r="W33" s="23"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="21"/>
-      <c r="B34" s="71">
+      <c r="B34" s="75">
         <v>6008537477</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="28" t="s">
         <v>109</v>
       </c>
@@ -21436,8 +21266,8 @@
         <v>110</v>
       </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="79"/>
       <c r="O34" s="21">
         <v>6072122</v>
       </c>
@@ -21456,19 +21286,19 @@
       <c r="T34" s="27">
         <v>18000</v>
       </c>
-      <c r="U34" s="74" t="s">
+      <c r="U34" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="V34" s="75"/>
+      <c r="V34" s="79"/>
       <c r="W34" s="23"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" s="21"/>
-      <c r="B35" s="71">
+      <c r="B35" s="75">
         <v>6008537479</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="28" t="s">
         <v>109</v>
       </c>
@@ -21491,8 +21321,8 @@
         <v>110</v>
       </c>
       <c r="L35" s="28"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="73"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="77"/>
       <c r="O35" s="28">
         <v>6073385</v>
       </c>
@@ -21511,19 +21341,19 @@
       <c r="T35" s="30">
         <v>17000</v>
       </c>
-      <c r="U35" s="71" t="s">
+      <c r="U35" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="V35" s="73"/>
+      <c r="V35" s="77"/>
       <c r="W35" s="23"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1">
       <c r="A36" s="21"/>
-      <c r="B36" s="71">
+      <c r="B36" s="75">
         <v>6008537480</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="28" t="s">
         <v>109</v>
       </c>
@@ -21546,8 +21376,8 @@
         <v>110</v>
       </c>
       <c r="L36" s="21"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
       <c r="O36" s="21">
         <v>6073376</v>
       </c>
@@ -21566,19 +21396,19 @@
       <c r="T36" s="27">
         <v>4000</v>
       </c>
-      <c r="U36" s="74" t="s">
+      <c r="U36" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="V36" s="75"/>
+      <c r="V36" s="79"/>
       <c r="W36" s="23"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1">
       <c r="A37" s="21"/>
-      <c r="B37" s="71">
+      <c r="B37" s="75">
         <v>6008537492</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="28" t="s">
         <v>109</v>
       </c>
@@ -21601,10 +21431,10 @@
         <v>110</v>
       </c>
       <c r="L37" s="28"/>
-      <c r="M37" s="71">
+      <c r="M37" s="75">
         <v>9081250</v>
       </c>
-      <c r="N37" s="73"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28" t="s">
@@ -21619,19 +21449,19 @@
       <c r="T37" s="30">
         <v>2000</v>
       </c>
-      <c r="U37" s="71" t="s">
+      <c r="U37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V37" s="73"/>
+      <c r="V37" s="77"/>
       <c r="W37" s="23"/>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="21"/>
-      <c r="B38" s="71">
+      <c r="B38" s="75">
         <v>6008537492</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="28" t="s">
         <v>109</v>
       </c>
@@ -21656,10 +21486,10 @@
       <c r="L38" s="21">
         <v>9629</v>
       </c>
-      <c r="M38" s="74">
+      <c r="M38" s="78">
         <v>10</v>
       </c>
-      <c r="N38" s="75"/>
+      <c r="N38" s="79"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
@@ -21674,18 +21504,18 @@
       <c r="T38" s="27">
         <v>1500</v>
       </c>
-      <c r="U38" s="74" t="s">
+      <c r="U38" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="V38" s="75"/>
+      <c r="V38" s="79"/>
       <c r="W38" s="23"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="21"/>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -21695,8 +21525,8 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="75"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="79"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
@@ -21707,19 +21537,19 @@
       <c r="T39" s="27">
         <v>23500</v>
       </c>
-      <c r="U39" s="74" t="s">
+      <c r="U39" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="V39" s="75"/>
+      <c r="V39" s="79"/>
       <c r="W39" s="23"/>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" s="21"/>
-      <c r="B40" s="71">
+      <c r="B40" s="75">
         <v>6008546628</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="28" t="s">
         <v>109</v>
       </c>
@@ -21742,10 +21572,10 @@
         <v>110</v>
       </c>
       <c r="L40" s="28"/>
-      <c r="M40" s="71">
+      <c r="M40" s="75">
         <v>9081250</v>
       </c>
-      <c r="N40" s="73"/>
+      <c r="N40" s="77"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28" t="s">
@@ -21760,19 +21590,19 @@
       <c r="T40" s="30">
         <v>2000</v>
       </c>
-      <c r="U40" s="71" t="s">
+      <c r="U40" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V40" s="73"/>
+      <c r="V40" s="77"/>
       <c r="W40" s="23"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" s="21"/>
-      <c r="B41" s="71">
+      <c r="B41" s="75">
         <v>6008546628</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="28" t="s">
         <v>109</v>
       </c>
@@ -21797,10 +21627,10 @@
       <c r="L41" s="21">
         <v>9629</v>
       </c>
-      <c r="M41" s="74">
+      <c r="M41" s="78">
         <v>10</v>
       </c>
-      <c r="N41" s="75"/>
+      <c r="N41" s="79"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21" t="s">
@@ -21815,19 +21645,19 @@
       <c r="T41" s="27">
         <v>1500</v>
       </c>
-      <c r="U41" s="74" t="s">
+      <c r="U41" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="V41" s="75"/>
+      <c r="V41" s="79"/>
       <c r="W41" s="23"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="71">
+      <c r="B42" s="75">
         <v>6008546628</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="28" t="s">
         <v>109</v>
       </c>
@@ -21852,10 +21682,10 @@
       <c r="L42" s="28">
         <v>9629</v>
       </c>
-      <c r="M42" s="71">
+      <c r="M42" s="75">
         <v>10</v>
       </c>
-      <c r="N42" s="73"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28" t="s">
@@ -21870,19 +21700,19 @@
       <c r="T42" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U42" s="71" t="s">
+      <c r="U42" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="V42" s="73"/>
+      <c r="V42" s="77"/>
       <c r="W42" s="23"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="71">
+      <c r="B43" s="75">
         <v>6008546628</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="28" t="s">
         <v>109</v>
       </c>
@@ -21907,10 +21737,10 @@
       <c r="L43" s="21">
         <v>9629</v>
       </c>
-      <c r="M43" s="74">
+      <c r="M43" s="78">
         <v>70</v>
       </c>
-      <c r="N43" s="75"/>
+      <c r="N43" s="79"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21" t="s">
@@ -21925,19 +21755,19 @@
       <c r="T43" s="27">
         <v>4000</v>
       </c>
-      <c r="U43" s="74" t="s">
+      <c r="U43" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="V43" s="75"/>
+      <c r="V43" s="79"/>
       <c r="W43" s="23"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" hidden="1">
       <c r="A44" s="21"/>
-      <c r="B44" s="71">
+      <c r="B44" s="75">
         <v>6008546629</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="28" t="s">
         <v>109</v>
       </c>
@@ -21960,8 +21790,8 @@
         <v>110</v>
       </c>
       <c r="L44" s="28"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="73"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="28">
         <v>6073385</v>
       </c>
@@ -21980,19 +21810,19 @@
       <c r="T44" s="30">
         <v>7000</v>
       </c>
-      <c r="U44" s="71" t="s">
+      <c r="U44" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="V44" s="73"/>
+      <c r="V44" s="77"/>
       <c r="W44" s="23"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="21"/>
-      <c r="B45" s="71">
+      <c r="B45" s="75">
         <v>6008546631</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="28" t="s">
         <v>109</v>
       </c>
@@ -22015,8 +21845,8 @@
         <v>110</v>
       </c>
       <c r="L45" s="21"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="75"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="79"/>
       <c r="O45" s="21">
         <v>6072122</v>
       </c>
@@ -22035,18 +21865,18 @@
       <c r="T45" s="27">
         <v>8500</v>
       </c>
-      <c r="U45" s="74" t="s">
+      <c r="U45" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="V45" s="75"/>
+      <c r="V45" s="79"/>
       <c r="W45" s="23"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" s="21"/>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -22056,8 +21886,8 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="75"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="79"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
@@ -22068,19 +21898,19 @@
       <c r="T46" s="27">
         <v>2000</v>
       </c>
-      <c r="U46" s="74" t="s">
+      <c r="U46" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="V46" s="75"/>
+      <c r="V46" s="79"/>
       <c r="W46" s="23"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="21"/>
-      <c r="B47" s="71">
+      <c r="B47" s="75">
         <v>6008547487</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="28" t="s">
         <v>109</v>
       </c>
@@ -22103,8 +21933,8 @@
         <v>110</v>
       </c>
       <c r="L47" s="28"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="73"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="28">
         <v>6072122</v>
       </c>
@@ -22123,18 +21953,18 @@
       <c r="T47" s="30">
         <v>2000</v>
       </c>
-      <c r="U47" s="71" t="s">
+      <c r="U47" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V47" s="73"/>
+      <c r="V47" s="77"/>
       <c r="W47" s="23"/>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" s="21"/>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -22144,8 +21974,8 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="75"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="79"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
@@ -22156,19 +21986,19 @@
       <c r="T48" s="27">
         <v>96000</v>
       </c>
-      <c r="U48" s="74" t="s">
+      <c r="U48" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="V48" s="75"/>
+      <c r="V48" s="79"/>
       <c r="W48" s="23"/>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" s="21"/>
-      <c r="B49" s="71">
+      <c r="B49" s="75">
         <v>6008556116</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="28" t="s">
         <v>109</v>
       </c>
@@ -22191,10 +22021,10 @@
         <v>110</v>
       </c>
       <c r="L49" s="21"/>
-      <c r="M49" s="74">
+      <c r="M49" s="78">
         <v>9081250</v>
       </c>
-      <c r="N49" s="75"/>
+      <c r="N49" s="79"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21" t="s">
@@ -22209,19 +22039,19 @@
       <c r="T49" s="27">
         <v>4000</v>
       </c>
-      <c r="U49" s="74" t="s">
+      <c r="U49" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="V49" s="75"/>
+      <c r="V49" s="79"/>
       <c r="W49" s="23"/>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="71">
+      <c r="B50" s="75">
         <v>6008556116</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="28" t="s">
         <v>109</v>
       </c>
@@ -22246,10 +22076,10 @@
       <c r="L50" s="28">
         <v>9629</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="75">
         <v>30</v>
       </c>
-      <c r="N50" s="73"/>
+      <c r="N50" s="77"/>
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
       <c r="Q50" s="28" t="s">
@@ -22264,19 +22094,19 @@
       <c r="T50" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="U50" s="71" t="s">
+      <c r="U50" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="V50" s="73"/>
+      <c r="V50" s="77"/>
       <c r="W50" s="23"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="21"/>
-      <c r="B51" s="71">
+      <c r="B51" s="75">
         <v>6008556128</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="28" t="s">
         <v>109</v>
       </c>
@@ -22299,8 +22129,8 @@
         <v>110</v>
       </c>
       <c r="L51" s="21"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="75"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="79"/>
       <c r="O51" s="21">
         <v>6072122</v>
       </c>
@@ -22319,19 +22149,19 @@
       <c r="T51" s="27">
         <v>15000</v>
       </c>
-      <c r="U51" s="74" t="s">
+      <c r="U51" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="V51" s="75"/>
+      <c r="V51" s="79"/>
       <c r="W51" s="23"/>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="71">
+      <c r="B52" s="75">
         <v>6008556129</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="28" t="s">
         <v>109</v>
       </c>
@@ -22354,8 +22184,8 @@
         <v>110</v>
       </c>
       <c r="L52" s="28"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="73"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="28">
         <v>6073376</v>
       </c>
@@ -22374,19 +22204,19 @@
       <c r="T52" s="30">
         <v>28000</v>
       </c>
-      <c r="U52" s="71" t="s">
+      <c r="U52" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="V52" s="73"/>
+      <c r="V52" s="77"/>
       <c r="W52" s="23"/>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="71">
+      <c r="B53" s="75">
         <v>6008556132</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="73"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="28" t="s">
         <v>109</v>
       </c>
@@ -22409,8 +22239,8 @@
         <v>110</v>
       </c>
       <c r="L53" s="21"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="75"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="79"/>
       <c r="O53" s="21">
         <v>6073385</v>
       </c>
@@ -22429,19 +22259,19 @@
       <c r="T53" s="27">
         <v>20500</v>
       </c>
-      <c r="U53" s="74" t="s">
+      <c r="U53" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="V53" s="75"/>
+      <c r="V53" s="79"/>
       <c r="W53" s="23"/>
     </row>
-    <row r="54" spans="1:23" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="15" hidden="1" thickBot="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="68">
+      <c r="B54" s="83">
         <v>6008556231</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="84"/>
       <c r="E54" s="24" t="s">
         <v>109</v>
       </c>
@@ -22464,8 +22294,8 @@
         <v>110</v>
       </c>
       <c r="L54" s="24"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="70"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="84"/>
       <c r="O54" s="24">
         <v>6073376</v>
       </c>
@@ -22484,13 +22314,13 @@
       <c r="T54" s="25">
         <v>28000</v>
       </c>
-      <c r="U54" s="68" t="s">
+      <c r="U54" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="V54" s="70"/>
+      <c r="V54" s="84"/>
       <c r="W54" s="23"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -22527,24 +22357,135 @@
     <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="159">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="U10:V10"/>
@@ -22557,135 +22498,24 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
